--- a/data/graphics 2 data.xlsx
+++ b/data/graphics 2 data.xlsx
@@ -1,42 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26903"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fundacionic-my.sharepoint.com/personal/aaustin_insightcrime_org/Documents/InSight Crime/01. Ven Team/00. Topical Investigations /Omar Prieto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cn/Desktop/IC/2023/IC Datos/SIDA/prieto_investigation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{AD867CEB-2842-3F4A-B7A1-0B748BAA2FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A42E76C-845A-8041-A041-E67C60AF560D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F147995A-B643-0E49-8EFA-DD15AF2C9B54}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{028717FA-FF4A-1143-9CA2-FADD0B7037ED}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" xr2:uid="{028717FA-FF4A-1143-9CA2-FADD0B7037ED}"/>
   </bookViews>
   <sheets>
     <sheet name="No violaciones DrchPers fueza" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" refMode="R1C1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'No violaciones DrchPers fueza'!$F$1:$F$349</definedName>
+  </definedNames>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="277">
   <si>
     <t>State</t>
   </si>
@@ -491,9 +483,6 @@
     <t xml:space="preserve">PoliSur </t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t xml:space="preserve">2014 PROVEA_Annual Report_Chapter - Derecho a la integridad personal; </t>
   </si>
   <si>
@@ -551,63 +540,27 @@
     <t>Poli Zulia </t>
   </si>
   <si>
-    <t>10 </t>
-  </si>
-  <si>
-    <t>0,55% </t>
-  </si>
-  <si>
     <t xml:space="preserve">2016 PROVEA_Annual Report_Chapter - Derecho a la integridad personal; Cuadro No 2 Discriminación por actores responsables (violación del derecho a la integridad personal) </t>
   </si>
   <si>
     <t>Poli Aragua </t>
   </si>
   <si>
-    <t>3 </t>
-  </si>
-  <si>
-    <t>0,16% </t>
-  </si>
-  <si>
     <t>Poli Anzoátegui </t>
   </si>
   <si>
-    <t>1 </t>
-  </si>
-  <si>
-    <t>0,05% </t>
-  </si>
-  <si>
     <t>Poli Yaracuy </t>
   </si>
   <si>
     <t>Regionales (total)</t>
   </si>
   <si>
-    <t>15 </t>
-  </si>
-  <si>
-    <t>0,83% </t>
-  </si>
-  <si>
     <t>Poli Plaza (Miranda) </t>
   </si>
   <si>
-    <t>200 </t>
-  </si>
-  <si>
-    <t>11,17% </t>
-  </si>
-  <si>
     <t>Paz Castillo (Miranda) </t>
   </si>
   <si>
-    <t>11 </t>
-  </si>
-  <si>
-    <t>0,61% </t>
-  </si>
-  <si>
     <t>Poli Zamora (Miranda) </t>
   </si>
   <si>
@@ -623,72 +576,27 @@
     <t>PNB / Paramilitares / Poli San Francisco (ZUL) </t>
   </si>
   <si>
-    <t>5 </t>
-  </si>
-  <si>
-    <t>0,27% </t>
-  </si>
-  <si>
-    <t>214 </t>
-  </si>
-  <si>
-    <t>11,95% </t>
-  </si>
-  <si>
     <t>POLI ARAGUA </t>
   </si>
   <si>
-    <t>108 </t>
-  </si>
-  <si>
-    <t>1,49% </t>
-  </si>
-  <si>
     <t xml:space="preserve">2017 PROVEA_Annual Report_Chapter - Derecho a la integridad personal; Cuadro No 2 Discriminación por actores responsables (violación del derecho a la integridad personal) </t>
   </si>
   <si>
     <t>POLI TRUJILLO </t>
   </si>
   <si>
-    <t>2 </t>
-  </si>
-  <si>
-    <t>0,02% </t>
-  </si>
-  <si>
     <t>POLI MÉRIDA </t>
   </si>
   <si>
     <t>POLI ZULIA </t>
   </si>
   <si>
-    <t>0,01% </t>
-  </si>
-  <si>
     <t>POLI LARA </t>
   </si>
   <si>
-    <t>114 </t>
-  </si>
-  <si>
-    <t>1,57% </t>
-  </si>
-  <si>
-    <t>2,76% </t>
-  </si>
-  <si>
     <t>Poli Zamora (Aragua) </t>
   </si>
   <si>
-    <t>8 </t>
-  </si>
-  <si>
-    <t>0,11% </t>
-  </si>
-  <si>
-    <t>0,15% </t>
-  </si>
-  <si>
     <t>Patrulleros del Caroní (Bolívar) </t>
   </si>
   <si>
@@ -698,36 +606,18 @@
     <t>Paramilitares </t>
   </si>
   <si>
-    <t>87 </t>
-  </si>
-  <si>
     <t>1.2% </t>
   </si>
   <si>
     <t>Agrupaciones paramilitares </t>
   </si>
   <si>
-    <t>1,2% </t>
-  </si>
-  <si>
-    <t>222 </t>
-  </si>
-  <si>
-    <t>3,06% </t>
-  </si>
-  <si>
     <t>GNB / PNB / Poli Lara </t>
   </si>
   <si>
     <t xml:space="preserve">Actuaciones conjuntas </t>
   </si>
   <si>
-    <t>60 </t>
-  </si>
-  <si>
-    <t>0,82% </t>
-  </si>
-  <si>
     <t>CICPC / Poli Zamora (Miranda) </t>
   </si>
   <si>
@@ -737,27 +627,15 @@
     <t>Poli Miranda </t>
   </si>
   <si>
-    <t>0,20% </t>
-  </si>
-  <si>
     <t xml:space="preserve">2018 PROVEA_Annual Report_Chapter - Derecho a la integridad personal; Cuadro No 2 Discriminación por actores responsables (violación del derecho a la integridad personal) </t>
   </si>
   <si>
-    <t>4 </t>
-  </si>
-  <si>
     <t>Poli Sucre </t>
   </si>
   <si>
-    <t>0,08% </t>
-  </si>
-  <si>
     <t>Poli Táchira </t>
   </si>
   <si>
-    <t>0,04% </t>
-  </si>
-  <si>
     <t>Poli Monagas </t>
   </si>
   <si>
@@ -767,51 +645,18 @@
     <t>Poli Lara </t>
   </si>
   <si>
-    <t>16 </t>
-  </si>
-  <si>
-    <t>0,64% </t>
-  </si>
-  <si>
     <t>Poli San Francisco (Zulia) </t>
   </si>
   <si>
-    <t>61 </t>
-  </si>
-  <si>
-    <t>2,46% </t>
-  </si>
-  <si>
     <t xml:space="preserve">2019 PROVEA_Annual Report_Chapter - Derecho a la integridad personal; Cuadro No 2 Discriminación por actores responsables (violación del derecho a la integridad personal) </t>
   </si>
   <si>
-    <t>12 </t>
-  </si>
-  <si>
-    <t>0,44% </t>
-  </si>
-  <si>
     <t>2020 PROVEA_Annual Report_Chapter - Derecho a la integridad personal; Cuadro No 4 Violaciones a la integridad personal 2020 Actores responsables</t>
   </si>
   <si>
-    <t>0,03% </t>
-  </si>
-  <si>
     <t>Poli Trujillo </t>
   </si>
   <si>
-    <t>9 </t>
-  </si>
-  <si>
-    <t>0,33% </t>
-  </si>
-  <si>
-    <t>148 </t>
-  </si>
-  <si>
-    <t>5,42% </t>
-  </si>
-  <si>
     <t>Poli Bolívar </t>
   </si>
   <si>
@@ -821,24 +666,12 @@
     <t>Poli Guárico </t>
   </si>
   <si>
-    <t xml:space="preserve">n/a </t>
-  </si>
-  <si>
     <t>Policía municipio Boconó (Trujillo) </t>
   </si>
   <si>
-    <t>0,07% </t>
-  </si>
-  <si>
     <t>Policía municipio Chacao (Miranda) </t>
   </si>
   <si>
-    <t>92 </t>
-  </si>
-  <si>
-    <t>3,37% </t>
-  </si>
-  <si>
     <t>Policía municipio Iribarren (Lara) </t>
   </si>
   <si>
@@ -869,21 +702,12 @@
     <t>DIEP / Policía del Estado Cojedes </t>
   </si>
   <si>
-    <t>0,07 </t>
-  </si>
-  <si>
     <t>2021 PROVEA_Annual Report_Chapter - Derecho a la integridad personal; Cuadro No 3 Violaciones a la integridad personal - 2021 Actores responsables</t>
   </si>
   <si>
     <t>Policía del Estado Anzoátegui </t>
   </si>
   <si>
-    <t>17 </t>
-  </si>
-  <si>
-    <t>1,30 </t>
-  </si>
-  <si>
     <t>Policía del Estado Apure </t>
   </si>
   <si>
@@ -902,18 +726,9 @@
     <t>SIPEF / Policía del Estado Falcón </t>
   </si>
   <si>
-    <t>0,30 </t>
-  </si>
-  <si>
     <t>Policía del Municipio Zamora (Miranda) </t>
   </si>
   <si>
-    <t>6 </t>
-  </si>
-  <si>
-    <t>0,45 </t>
-  </si>
-  <si>
     <t>Policía del Municipio Maracaibo (Zulia) </t>
   </si>
   <si>
@@ -948,13 +763,109 @@
   </si>
   <si>
     <t xml:space="preserve">In 2016, Provea noted that it was difficult to disagregate data by municipality, writing "En 148 situaciones no se pudo determinar la responsabilidad de los actores causantes de la violación al derecho a la integridad personal." For that year the data available lumbs together the PNB, PoliSur, and Paramilitaries </t>
+  </si>
+  <si>
+    <t>0.55% </t>
+  </si>
+  <si>
+    <t>0.16% </t>
+  </si>
+  <si>
+    <t>0.05% </t>
+  </si>
+  <si>
+    <t>0.83% </t>
+  </si>
+  <si>
+    <t>11.17% </t>
+  </si>
+  <si>
+    <t>0.61% </t>
+  </si>
+  <si>
+    <t>0.27% </t>
+  </si>
+  <si>
+    <t>11.95% </t>
+  </si>
+  <si>
+    <t>1.49% </t>
+  </si>
+  <si>
+    <t>0.02% </t>
+  </si>
+  <si>
+    <t>0.01% </t>
+  </si>
+  <si>
+    <t>1.57% </t>
+  </si>
+  <si>
+    <t>2.76% </t>
+  </si>
+  <si>
+    <t>0.11% </t>
+  </si>
+  <si>
+    <t>0.15% </t>
+  </si>
+  <si>
+    <t>3.06% </t>
+  </si>
+  <si>
+    <t>0.82% </t>
+  </si>
+  <si>
+    <t>0.20% </t>
+  </si>
+  <si>
+    <t>0.08% </t>
+  </si>
+  <si>
+    <t>0.04% </t>
+  </si>
+  <si>
+    <t>0.64% </t>
+  </si>
+  <si>
+    <t>2.46% </t>
+  </si>
+  <si>
+    <t>0.44% </t>
+  </si>
+  <si>
+    <t>0.03% </t>
+  </si>
+  <si>
+    <t>0.33% </t>
+  </si>
+  <si>
+    <t>5.42% </t>
+  </si>
+  <si>
+    <t>0.07% </t>
+  </si>
+  <si>
+    <t>3.37% </t>
+  </si>
+  <si>
+    <t>0.07 </t>
+  </si>
+  <si>
+    <t>1.30 </t>
+  </si>
+  <si>
+    <t>0.30 </t>
+  </si>
+  <si>
+    <t>0.45 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1047,7 +958,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1085,9 +996,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1401,23 +1317,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E9A7C4-A013-7242-9B87-FC0FF4DDDA44}">
   <dimension ref="A1:P349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H341" sqref="H341"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.875" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="19" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" customWidth="1"/>
     <col min="8" max="8" width="65.5" customWidth="1"/>
-    <col min="14" max="14" width="21.875" customWidth="1"/>
+    <col min="14" max="14" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="51">
+    <row r="1" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1433,7 +1349,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -1446,7 +1362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1459,7 +1375,7 @@
       <c r="E2" s="8">
         <v>39692</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="19">
         <v>10</v>
       </c>
       <c r="G2" s="7">
@@ -1478,7 +1394,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1491,7 +1407,7 @@
       <c r="E3" s="8">
         <v>39692</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="19">
         <v>9</v>
       </c>
       <c r="G3" s="7">
@@ -1504,7 +1420,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1517,7 +1433,7 @@
       <c r="E4" s="8">
         <v>39692</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="19">
         <v>7</v>
       </c>
       <c r="G4" s="7">
@@ -1530,7 +1446,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1543,7 +1459,7 @@
       <c r="E5" s="8">
         <v>39692</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="19">
         <v>4</v>
       </c>
       <c r="G5" s="7">
@@ -1556,7 +1472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1569,7 +1485,7 @@
       <c r="E6" s="8">
         <v>39692</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="19">
         <v>4</v>
       </c>
       <c r="G6" s="7">
@@ -1582,7 +1498,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1595,7 +1511,7 @@
       <c r="E7" s="8">
         <v>39692</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="19">
         <v>3</v>
       </c>
       <c r="G7" s="7">
@@ -1608,7 +1524,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1621,7 +1537,7 @@
       <c r="E8" s="8">
         <v>39692</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="19">
         <v>3</v>
       </c>
       <c r="G8" s="7">
@@ -1634,7 +1550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1647,7 +1563,7 @@
       <c r="E9" s="8">
         <v>39692</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="19">
         <v>3</v>
       </c>
       <c r="G9" s="7">
@@ -1660,7 +1576,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1673,7 +1589,7 @@
       <c r="E10" s="8">
         <v>39692</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="19">
         <v>2</v>
       </c>
       <c r="G10" s="7">
@@ -1686,7 +1602,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1699,7 +1615,7 @@
       <c r="E11" s="8">
         <v>39692</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="19">
         <v>2</v>
       </c>
       <c r="G11" s="7">
@@ -1712,7 +1628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1725,7 +1641,7 @@
       <c r="E12" s="8">
         <v>39692</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="19">
         <v>1</v>
       </c>
       <c r="G12" s="7">
@@ -1738,7 +1654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1751,7 +1667,7 @@
       <c r="E13" s="8">
         <v>39692</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="19">
         <v>1</v>
       </c>
       <c r="G13" s="7">
@@ -1764,7 +1680,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1777,7 +1693,7 @@
       <c r="E14" s="8">
         <v>39692</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="19">
         <v>1</v>
       </c>
       <c r="G14" s="7">
@@ -1790,7 +1706,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1803,7 +1719,7 @@
       <c r="E15" s="8">
         <v>39692</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="19">
         <v>1</v>
       </c>
       <c r="G15" s="7">
@@ -1816,7 +1732,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1829,7 +1745,7 @@
       <c r="E16" s="8">
         <v>39692</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="19">
         <v>1</v>
       </c>
       <c r="G16" s="7">
@@ -1842,7 +1758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1855,7 +1771,7 @@
       <c r="E17" s="8">
         <v>39692</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="19">
         <v>1</v>
       </c>
       <c r="G17" s="7">
@@ -1868,7 +1784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1881,7 +1797,7 @@
       <c r="E18" s="8">
         <v>39692</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="19">
         <v>1</v>
       </c>
       <c r="G18" s="7">
@@ -1894,7 +1810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1907,7 +1823,7 @@
       <c r="E19" s="8">
         <v>39692</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="19">
         <v>1</v>
       </c>
       <c r="G19" s="7">
@@ -1920,7 +1836,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1933,7 +1849,7 @@
       <c r="E20" s="8">
         <v>39692</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="19">
         <v>1</v>
       </c>
       <c r="G20" s="7">
@@ -1946,7 +1862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1959,7 +1875,7 @@
       <c r="E21" s="8">
         <v>39692</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="19">
         <v>1</v>
       </c>
       <c r="G21" s="7">
@@ -1972,7 +1888,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1985,7 +1901,7 @@
       <c r="E22" s="8">
         <v>39692</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="19">
         <v>1</v>
       </c>
       <c r="G22" s="7">
@@ -1998,7 +1914,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>35</v>
       </c>
@@ -2011,7 +1927,7 @@
       <c r="E23" s="8">
         <v>39692</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="19">
         <v>9</v>
       </c>
       <c r="G23" s="7">
@@ -2024,7 +1940,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>37</v>
       </c>
@@ -2037,7 +1953,7 @@
       <c r="E24" s="8">
         <v>39692</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="19">
         <v>6</v>
       </c>
       <c r="G24" s="7">
@@ -2050,7 +1966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>38</v>
       </c>
@@ -2063,7 +1979,7 @@
       <c r="E25" s="8">
         <v>39692</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="19">
         <v>5</v>
       </c>
       <c r="G25" s="7">
@@ -2076,7 +1992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>39</v>
       </c>
@@ -2089,7 +2005,7 @@
       <c r="E26" s="8">
         <v>39692</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="19">
         <v>4</v>
       </c>
       <c r="G26" s="7">
@@ -2102,7 +2018,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>30</v>
       </c>
@@ -2115,7 +2031,7 @@
       <c r="E27" s="8">
         <v>39692</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="19">
         <v>3</v>
       </c>
       <c r="G27" s="7">
@@ -2128,7 +2044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>40</v>
       </c>
@@ -2141,7 +2057,7 @@
       <c r="E28" s="8">
         <v>39692</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="19">
         <v>2</v>
       </c>
       <c r="G28" s="7">
@@ -2154,7 +2070,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>41</v>
       </c>
@@ -2167,7 +2083,7 @@
       <c r="E29" s="8">
         <v>39692</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="19">
         <v>2</v>
       </c>
       <c r="G29" s="7">
@@ -2180,7 +2096,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>42</v>
       </c>
@@ -2193,7 +2109,7 @@
       <c r="E30" s="8">
         <v>39692</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="19">
         <v>2</v>
       </c>
       <c r="G30" s="7">
@@ -2206,7 +2122,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>43</v>
       </c>
@@ -2219,7 +2135,7 @@
       <c r="E31" s="8">
         <v>39692</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="19">
         <v>1</v>
       </c>
       <c r="G31" s="7">
@@ -2232,7 +2148,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>44</v>
       </c>
@@ -2245,7 +2161,7 @@
       <c r="E32" s="8">
         <v>39692</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="19">
         <v>1</v>
       </c>
       <c r="G32" s="7">
@@ -2258,7 +2174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>45</v>
       </c>
@@ -2271,7 +2187,7 @@
       <c r="E33" s="8">
         <v>39692</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="19">
         <v>1</v>
       </c>
       <c r="G33" s="7">
@@ -2284,7 +2200,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>46</v>
       </c>
@@ -2297,7 +2213,7 @@
       <c r="E34" s="8">
         <v>39692</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="19">
         <v>1</v>
       </c>
       <c r="G34" s="7">
@@ -2310,7 +2226,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>47</v>
       </c>
@@ -2323,7 +2239,7 @@
       <c r="E35" s="8">
         <v>39692</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="19">
         <v>1</v>
       </c>
       <c r="G35" s="7">
@@ -2336,7 +2252,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>48</v>
       </c>
@@ -2349,7 +2265,7 @@
       <c r="E36" s="8">
         <v>39692</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="19">
         <v>1</v>
       </c>
       <c r="G36" s="7">
@@ -2362,7 +2278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>49</v>
       </c>
@@ -2375,7 +2291,7 @@
       <c r="E37" s="8">
         <v>39692</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="19">
         <v>1</v>
       </c>
       <c r="G37" s="7">
@@ -2388,7 +2304,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>9</v>
       </c>
@@ -2401,7 +2317,7 @@
       <c r="E38" s="8">
         <v>39692</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="19">
         <v>1</v>
       </c>
       <c r="G38" s="7">
@@ -2414,7 +2330,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>50</v>
       </c>
@@ -2427,7 +2343,7 @@
       <c r="E39" s="8">
         <v>39692</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="19">
         <v>1</v>
       </c>
       <c r="G39" s="7">
@@ -2440,7 +2356,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>51</v>
       </c>
@@ -2453,7 +2369,7 @@
       <c r="E40" s="8">
         <v>39692</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="19">
         <v>1</v>
       </c>
       <c r="G40" s="7">
@@ -2466,7 +2382,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>52</v>
       </c>
@@ -2479,7 +2395,7 @@
       <c r="E41" s="8">
         <v>39692</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="19">
         <v>1</v>
       </c>
       <c r="G41" s="7">
@@ -2492,7 +2408,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>53</v>
       </c>
@@ -2505,7 +2421,7 @@
       <c r="E42" s="8">
         <v>39692</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="19">
         <v>1</v>
       </c>
       <c r="G42" s="7">
@@ -2518,7 +2434,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>54</v>
       </c>
@@ -2531,7 +2447,7 @@
       <c r="E43" s="8">
         <v>39692</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="19">
         <v>1</v>
       </c>
       <c r="G43" s="7">
@@ -2544,7 +2460,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>55</v>
       </c>
@@ -2557,7 +2473,7 @@
       <c r="E44" s="8">
         <v>39692</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="19">
         <v>1</v>
       </c>
       <c r="G44" s="7">
@@ -2570,7 +2486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>21</v>
       </c>
@@ -2583,7 +2499,7 @@
       <c r="E45" s="8">
         <v>39692</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="19">
         <v>1</v>
       </c>
       <c r="G45" s="7">
@@ -2596,7 +2512,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>56</v>
       </c>
@@ -2609,7 +2525,7 @@
       <c r="E46" s="8">
         <v>39692</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="19">
         <v>1</v>
       </c>
       <c r="G46" s="7">
@@ -2622,12 +2538,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>16</v>
       </c>
@@ -2641,7 +2557,7 @@
       <c r="E48" s="8">
         <v>40057</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="20">
         <v>13</v>
       </c>
       <c r="G48" s="4">
@@ -2651,7 +2567,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>19</v>
       </c>
@@ -2665,7 +2581,7 @@
       <c r="E49" s="8">
         <v>40057</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="20">
         <v>6</v>
       </c>
       <c r="G49" s="6">
@@ -2675,7 +2591,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>23</v>
       </c>
@@ -2689,7 +2605,7 @@
       <c r="E50" s="8">
         <v>40057</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="20">
         <v>3</v>
       </c>
       <c r="G50" s="6">
@@ -2699,7 +2615,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>26</v>
       </c>
@@ -2713,7 +2629,7 @@
       <c r="E51" s="8">
         <v>40057</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="20">
         <v>3</v>
       </c>
       <c r="G51" s="6">
@@ -2723,7 +2639,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>21</v>
       </c>
@@ -2737,7 +2653,7 @@
       <c r="E52" s="8">
         <v>40057</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="20">
         <v>3</v>
       </c>
       <c r="G52" s="6">
@@ -2747,7 +2663,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>24</v>
       </c>
@@ -2761,7 +2677,7 @@
       <c r="E53" s="8">
         <v>40057</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="20">
         <v>2</v>
       </c>
       <c r="G53" s="4">
@@ -2771,7 +2687,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>27</v>
       </c>
@@ -2785,7 +2701,7 @@
       <c r="E54" s="8">
         <v>40057</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54" s="20">
         <v>2</v>
       </c>
       <c r="G54" s="4">
@@ -2795,7 +2711,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>18</v>
       </c>
@@ -2809,7 +2725,7 @@
       <c r="E55" s="8">
         <v>40057</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55" s="20">
         <v>2</v>
       </c>
       <c r="G55" s="4">
@@ -2819,7 +2735,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>9</v>
       </c>
@@ -2833,7 +2749,7 @@
       <c r="E56" s="8">
         <v>40057</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56" s="20">
         <v>2</v>
       </c>
       <c r="G56" s="4">
@@ -2843,7 +2759,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>22</v>
       </c>
@@ -2857,7 +2773,7 @@
       <c r="E57" s="8">
         <v>40057</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57" s="20">
         <v>1</v>
       </c>
       <c r="G57" s="4">
@@ -2867,7 +2783,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>28</v>
       </c>
@@ -2881,7 +2797,7 @@
       <c r="E58" s="8">
         <v>40057</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58" s="20">
         <v>1</v>
       </c>
       <c r="G58" s="4">
@@ -2891,7 +2807,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>30</v>
       </c>
@@ -2905,7 +2821,7 @@
       <c r="E59" s="8">
         <v>40057</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F59" s="20">
         <v>1</v>
       </c>
       <c r="G59" s="4">
@@ -2915,7 +2831,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>32</v>
       </c>
@@ -2929,7 +2845,7 @@
       <c r="E60" s="8">
         <v>40057</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60" s="20">
         <v>1</v>
       </c>
       <c r="G60" s="4">
@@ -2939,7 +2855,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>58</v>
       </c>
@@ -2952,7 +2868,7 @@
       <c r="E61" s="8">
         <v>40057</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61" s="20">
         <v>40</v>
       </c>
       <c r="G61" s="4">
@@ -2962,7 +2878,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B62" s="5" t="s">
         <v>59</v>
       </c>
@@ -2975,7 +2891,7 @@
       <c r="E62" s="8">
         <v>40057</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62" s="20">
         <v>9</v>
       </c>
       <c r="G62" s="6">
@@ -2985,7 +2901,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B63" s="5" t="s">
         <v>60</v>
       </c>
@@ -2998,7 +2914,7 @@
       <c r="E63" s="8">
         <v>40057</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63" s="20">
         <v>8</v>
       </c>
       <c r="G63" s="4">
@@ -3008,7 +2924,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B64" s="5" t="s">
         <v>37</v>
       </c>
@@ -3021,7 +2937,7 @@
       <c r="E64" s="8">
         <v>40057</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64" s="20">
         <v>8</v>
       </c>
       <c r="G64" s="4">
@@ -3031,7 +2947,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B65" s="5" t="s">
         <v>61</v>
       </c>
@@ -3044,7 +2960,7 @@
       <c r="E65" s="8">
         <v>40057</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65" s="20">
         <v>6</v>
       </c>
       <c r="G65" s="6">
@@ -3054,7 +2970,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B66" s="5" t="s">
         <v>30</v>
       </c>
@@ -3067,7 +2983,7 @@
       <c r="E66" s="8">
         <v>40057</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66" s="20">
         <v>4</v>
       </c>
       <c r="G66" s="4">
@@ -3077,7 +2993,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B67" s="5" t="s">
         <v>53</v>
       </c>
@@ -3090,7 +3006,7 @@
       <c r="E67" s="8">
         <v>40057</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67" s="20">
         <v>4</v>
       </c>
       <c r="G67" s="4">
@@ -3100,7 +3016,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B68" s="5" t="s">
         <v>35</v>
       </c>
@@ -3113,7 +3029,7 @@
       <c r="E68" s="8">
         <v>40057</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F68" s="20">
         <v>4</v>
       </c>
       <c r="G68" s="4">
@@ -3123,7 +3039,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B69" s="5" t="s">
         <v>44</v>
       </c>
@@ -3136,7 +3052,7 @@
       <c r="E69" s="8">
         <v>40057</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69" s="20">
         <v>2</v>
       </c>
       <c r="G69" s="4">
@@ -3146,7 +3062,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B70" s="5" t="s">
         <v>62</v>
       </c>
@@ -3159,7 +3075,7 @@
       <c r="E70" s="8">
         <v>40057</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F70" s="20">
         <v>2</v>
       </c>
       <c r="G70" s="4">
@@ -3169,7 +3085,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B71" s="5" t="s">
         <v>63</v>
       </c>
@@ -3182,7 +3098,7 @@
       <c r="E71" s="8">
         <v>40057</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F71" s="20">
         <v>2</v>
       </c>
       <c r="G71" s="4">
@@ -3192,7 +3108,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B72" s="5" t="s">
         <v>64</v>
       </c>
@@ -3205,7 +3121,7 @@
       <c r="E72" s="8">
         <v>40057</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F72" s="20">
         <v>2</v>
       </c>
       <c r="G72" s="4">
@@ -3215,7 +3131,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B73" s="5" t="s">
         <v>65</v>
       </c>
@@ -3228,7 +3144,7 @@
       <c r="E73" s="8">
         <v>40057</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F73" s="20">
         <v>1</v>
       </c>
       <c r="G73" s="4">
@@ -3238,7 +3154,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B74" s="5" t="s">
         <v>39</v>
       </c>
@@ -3251,7 +3167,7 @@
       <c r="E74" s="8">
         <v>40057</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F74" s="20">
         <v>1</v>
       </c>
       <c r="G74" s="4">
@@ -3261,7 +3177,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B75" s="5" t="s">
         <v>66</v>
       </c>
@@ -3274,7 +3190,7 @@
       <c r="E75" s="8">
         <v>40057</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F75" s="20">
         <v>1</v>
       </c>
       <c r="G75" s="4">
@@ -3284,7 +3200,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B76" s="5" t="s">
         <v>67</v>
       </c>
@@ -3297,7 +3213,7 @@
       <c r="E76" s="8">
         <v>40057</v>
       </c>
-      <c r="F76" s="1">
+      <c r="F76" s="20">
         <v>1</v>
       </c>
       <c r="G76" s="4">
@@ -3307,7 +3223,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="B77" s="5" t="s">
         <v>68</v>
@@ -3321,7 +3237,7 @@
       <c r="E77" s="8">
         <v>40057</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F77" s="20">
         <v>1</v>
       </c>
       <c r="G77" s="4">
@@ -3331,7 +3247,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="B78" s="5" t="s">
         <v>69</v>
@@ -3345,7 +3261,7 @@
       <c r="E78" s="8">
         <v>40057</v>
       </c>
-      <c r="F78" s="1">
+      <c r="F78" s="20">
         <v>1</v>
       </c>
       <c r="G78" s="4">
@@ -3355,7 +3271,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" s="5" t="s">
         <v>70</v>
@@ -3369,7 +3285,7 @@
       <c r="E79" s="8">
         <v>40057</v>
       </c>
-      <c r="F79" s="1">
+      <c r="F79" s="20">
         <v>1</v>
       </c>
       <c r="G79" s="4">
@@ -3379,7 +3295,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
       <c r="B80" s="5" t="s">
         <v>52</v>
@@ -3393,7 +3309,7 @@
       <c r="E80" s="8">
         <v>40057</v>
       </c>
-      <c r="F80" s="1">
+      <c r="F80" s="20">
         <v>1</v>
       </c>
       <c r="G80" s="4">
@@ -3403,7 +3319,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="B81" s="5" t="s">
         <v>71</v>
@@ -3417,7 +3333,7 @@
       <c r="E81" s="8">
         <v>40057</v>
       </c>
-      <c r="F81" s="1">
+      <c r="F81" s="20">
         <v>1</v>
       </c>
       <c r="G81" s="4">
@@ -3427,7 +3343,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
       <c r="B82" s="5" t="s">
         <v>38</v>
@@ -3441,7 +3357,7 @@
       <c r="E82" s="8">
         <v>40057</v>
       </c>
-      <c r="F82" s="1">
+      <c r="F82" s="20">
         <v>1</v>
       </c>
       <c r="G82" s="4">
@@ -3451,7 +3367,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="B83" s="5" t="s">
         <v>72</v>
@@ -3465,7 +3381,7 @@
       <c r="E83" s="8">
         <v>40057</v>
       </c>
-      <c r="F83" s="1">
+      <c r="F83" s="20">
         <v>1</v>
       </c>
       <c r="G83" s="4">
@@ -3475,7 +3391,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" s="5" t="s">
         <v>73</v>
@@ -3489,7 +3405,7 @@
       <c r="E84" s="8">
         <v>40057</v>
       </c>
-      <c r="F84" s="1">
+      <c r="F84" s="20">
         <v>1</v>
       </c>
       <c r="G84" s="4">
@@ -3499,7 +3415,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="B85" s="5" t="s">
         <v>74</v>
@@ -3513,7 +3429,7 @@
       <c r="E85" s="8">
         <v>40057</v>
       </c>
-      <c r="F85" s="1">
+      <c r="F85" s="20">
         <v>1</v>
       </c>
       <c r="G85" s="4">
@@ -3523,7 +3439,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
       <c r="B86" s="5" t="s">
         <v>48</v>
@@ -3537,7 +3453,7 @@
       <c r="E86" s="8">
         <v>40057</v>
       </c>
-      <c r="F86" s="1">
+      <c r="F86" s="20">
         <v>1</v>
       </c>
       <c r="G86" s="4">
@@ -3547,7 +3463,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
       <c r="B87" s="5" t="s">
         <v>42</v>
@@ -3561,7 +3477,7 @@
       <c r="E87" s="8">
         <v>40057</v>
       </c>
-      <c r="F87" s="1">
+      <c r="F87" s="20">
         <v>1</v>
       </c>
       <c r="G87" s="4">
@@ -3571,7 +3487,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
       <c r="B88" s="5" t="s">
         <v>75</v>
@@ -3585,7 +3501,7 @@
       <c r="E88" s="8">
         <v>40057</v>
       </c>
-      <c r="F88" s="1">
+      <c r="F88" s="20">
         <v>1</v>
       </c>
       <c r="G88" s="4">
@@ -3595,7 +3511,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
       <c r="B89" s="5" t="s">
         <v>76</v>
@@ -3609,7 +3525,7 @@
       <c r="E89" s="8">
         <v>40057</v>
       </c>
-      <c r="F89" s="1">
+      <c r="F89" s="20">
         <v>1</v>
       </c>
       <c r="G89" s="4">
@@ -3619,7 +3535,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="5" t="s">
         <v>77</v>
@@ -3633,7 +3549,7 @@
       <c r="E90" s="8">
         <v>40057</v>
       </c>
-      <c r="F90" s="1">
+      <c r="F90" s="20">
         <v>68</v>
       </c>
       <c r="G90" s="4">
@@ -3643,7 +3559,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="17.100000000000001">
+    <row r="91" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>78</v>
       </c>
@@ -3656,7 +3572,7 @@
       <c r="E91" s="8">
         <v>40422</v>
       </c>
-      <c r="F91" s="1">
+      <c r="F91" s="20">
         <v>14</v>
       </c>
       <c r="G91" s="4">
@@ -3666,7 +3582,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="17.100000000000001">
+    <row r="92" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>19</v>
       </c>
@@ -3679,7 +3595,7 @@
       <c r="E92" s="8">
         <v>40422</v>
       </c>
-      <c r="F92" s="1">
+      <c r="F92" s="20">
         <v>10</v>
       </c>
       <c r="G92" s="4">
@@ -3689,7 +3605,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="17.100000000000001">
+    <row r="93" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>15</v>
       </c>
@@ -3702,7 +3618,7 @@
       <c r="E93" s="8">
         <v>40422</v>
       </c>
-      <c r="F93" s="1">
+      <c r="F93" s="20">
         <v>7</v>
       </c>
       <c r="G93" s="4">
@@ -3712,7 +3628,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="17.100000000000001">
+    <row r="94" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>9</v>
       </c>
@@ -3725,7 +3641,7 @@
       <c r="E94" s="8">
         <v>40422</v>
       </c>
-      <c r="F94" s="1">
+      <c r="F94" s="20">
         <v>6</v>
       </c>
       <c r="G94" s="4">
@@ -3735,7 +3651,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="17.100000000000001">
+    <row r="95" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>23</v>
       </c>
@@ -3749,7 +3665,7 @@
       <c r="E95" s="8">
         <v>40422</v>
       </c>
-      <c r="F95" s="1">
+      <c r="F95" s="20">
         <v>5</v>
       </c>
       <c r="G95" s="4">
@@ -3759,7 +3675,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="17.100000000000001">
+    <row r="96" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>26</v>
       </c>
@@ -3773,7 +3689,7 @@
       <c r="E96" s="8">
         <v>40422</v>
       </c>
-      <c r="F96" s="1">
+      <c r="F96" s="20">
         <v>5</v>
       </c>
       <c r="G96" s="4">
@@ -3783,7 +3699,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="17.100000000000001">
+    <row r="97" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>21</v>
       </c>
@@ -3797,7 +3713,7 @@
       <c r="E97" s="8">
         <v>40422</v>
       </c>
-      <c r="F97" s="1">
+      <c r="F97" s="20">
         <v>5</v>
       </c>
       <c r="G97" s="4">
@@ -3807,7 +3723,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="17.100000000000001">
+    <row r="98" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>27</v>
       </c>
@@ -3821,7 +3737,7 @@
       <c r="E98" s="8">
         <v>40422</v>
       </c>
-      <c r="F98" s="1">
+      <c r="F98" s="20">
         <v>5</v>
       </c>
       <c r="G98" s="4">
@@ -3831,7 +3747,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="17.100000000000001">
+    <row r="99" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>22</v>
       </c>
@@ -3845,7 +3761,7 @@
       <c r="E99" s="8">
         <v>40422</v>
       </c>
-      <c r="F99" s="1">
+      <c r="F99" s="20">
         <v>4</v>
       </c>
       <c r="G99" s="4">
@@ -3855,7 +3771,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="17.100000000000001">
+    <row r="100" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>28</v>
       </c>
@@ -3869,7 +3785,7 @@
       <c r="E100" s="8">
         <v>40422</v>
       </c>
-      <c r="F100" s="1">
+      <c r="F100" s="20">
         <v>3</v>
       </c>
       <c r="G100" s="4">
@@ -3879,7 +3795,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="17.100000000000001">
+    <row r="101" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>30</v>
       </c>
@@ -3893,7 +3809,7 @@
       <c r="E101" s="8">
         <v>40422</v>
       </c>
-      <c r="F101" s="1">
+      <c r="F101" s="20">
         <v>3</v>
       </c>
       <c r="G101" s="4">
@@ -3903,7 +3819,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="17.100000000000001">
+    <row r="102" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>80</v>
       </c>
@@ -3917,7 +3833,7 @@
       <c r="E102" s="8">
         <v>40422</v>
       </c>
-      <c r="F102" s="1">
+      <c r="F102" s="20">
         <v>2</v>
       </c>
       <c r="G102" s="4">
@@ -3927,7 +3843,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="17.100000000000001">
+    <row r="103" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>81</v>
       </c>
@@ -3940,7 +3856,7 @@
       <c r="E103" s="8">
         <v>40422</v>
       </c>
-      <c r="F103" s="1">
+      <c r="F103" s="20">
         <v>1</v>
       </c>
       <c r="G103" s="4">
@@ -3950,7 +3866,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="33.950000000000003">
+    <row r="104" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>25</v>
       </c>
@@ -3963,7 +3879,7 @@
       <c r="E104" s="8">
         <v>40422</v>
       </c>
-      <c r="F104" s="1">
+      <c r="F104" s="20">
         <v>1</v>
       </c>
       <c r="G104" s="4">
@@ -3973,7 +3889,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="17.100000000000001">
+    <row r="105" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>29</v>
       </c>
@@ -3986,7 +3902,7 @@
       <c r="E105" s="8">
         <v>40422</v>
       </c>
-      <c r="F105" s="1">
+      <c r="F105" s="20">
         <v>1</v>
       </c>
       <c r="G105" s="4">
@@ -3996,7 +3912,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="33.950000000000003">
+    <row r="106" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>31</v>
       </c>
@@ -4010,7 +3926,7 @@
       <c r="E106" s="8">
         <v>40422</v>
       </c>
-      <c r="F106" s="1">
+      <c r="F106" s="20">
         <v>1</v>
       </c>
       <c r="G106" s="4">
@@ -4020,7 +3936,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="33.950000000000003">
+    <row r="107" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>58</v>
       </c>
@@ -4034,7 +3950,7 @@
       <c r="E107" s="8">
         <v>40422</v>
       </c>
-      <c r="F107" s="1">
+      <c r="F107" s="20">
         <v>73</v>
       </c>
       <c r="G107" s="4">
@@ -4044,7 +3960,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="17.100000000000001">
+    <row r="108" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B108" s="3" t="s">
         <v>37</v>
       </c>
@@ -4057,7 +3973,7 @@
       <c r="E108" s="8">
         <v>40422</v>
       </c>
-      <c r="F108" s="1">
+      <c r="F108" s="20">
         <v>12</v>
       </c>
       <c r="G108" s="4">
@@ -4067,7 +3983,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="17.100000000000001">
+    <row r="109" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B109" s="3" t="s">
         <v>42</v>
       </c>
@@ -4080,7 +3996,7 @@
       <c r="E109" s="8">
         <v>40422</v>
       </c>
-      <c r="F109" s="1">
+      <c r="F109" s="20">
         <v>6</v>
       </c>
       <c r="G109" s="4">
@@ -4090,7 +4006,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="17.100000000000001">
+    <row r="110" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B110" s="3" t="s">
         <v>62</v>
       </c>
@@ -4103,7 +4019,7 @@
       <c r="E110" s="8">
         <v>40422</v>
       </c>
-      <c r="F110" s="1">
+      <c r="F110" s="20">
         <v>5</v>
       </c>
       <c r="G110" s="4">
@@ -4113,7 +4029,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="17.100000000000001">
+    <row r="111" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B111" s="3" t="s">
         <v>61</v>
       </c>
@@ -4126,7 +4042,7 @@
       <c r="E111" s="8">
         <v>40422</v>
       </c>
-      <c r="F111" s="1">
+      <c r="F111" s="20">
         <v>4</v>
       </c>
       <c r="G111" s="4">
@@ -4136,7 +4052,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="17.100000000000001">
+    <row r="112" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B112" s="3" t="s">
         <v>63</v>
       </c>
@@ -4149,7 +4065,7 @@
       <c r="E112" s="8">
         <v>40422</v>
       </c>
-      <c r="F112" s="1">
+      <c r="F112" s="20">
         <v>4</v>
       </c>
       <c r="G112" s="4">
@@ -4159,7 +4075,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="113" spans="2:8" ht="17.100000000000001">
+    <row r="113" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B113" s="3" t="s">
         <v>82</v>
       </c>
@@ -4172,7 +4088,7 @@
       <c r="E113" s="8">
         <v>40422</v>
       </c>
-      <c r="F113" s="1">
+      <c r="F113" s="20">
         <v>3</v>
       </c>
       <c r="G113" s="4">
@@ -4182,7 +4098,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="114" spans="2:8" ht="17.100000000000001">
+    <row r="114" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B114" s="3" t="s">
         <v>55</v>
       </c>
@@ -4195,7 +4111,7 @@
       <c r="E114" s="8">
         <v>40422</v>
       </c>
-      <c r="F114" s="1">
+      <c r="F114" s="20">
         <v>3</v>
       </c>
       <c r="G114" s="4">
@@ -4205,7 +4121,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="115" spans="2:8" ht="17.100000000000001">
+    <row r="115" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B115" s="3" t="s">
         <v>75</v>
       </c>
@@ -4218,7 +4134,7 @@
       <c r="E115" s="8">
         <v>40422</v>
       </c>
-      <c r="F115" s="1">
+      <c r="F115" s="20">
         <v>3</v>
       </c>
       <c r="G115" s="4">
@@ -4228,7 +4144,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="116" spans="2:8" ht="17.100000000000001">
+    <row r="116" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B116" s="3" t="s">
         <v>83</v>
       </c>
@@ -4241,7 +4157,7 @@
       <c r="E116" s="8">
         <v>40422</v>
       </c>
-      <c r="F116" s="1">
+      <c r="F116" s="20">
         <v>3</v>
       </c>
       <c r="G116" s="4">
@@ -4251,7 +4167,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="117" spans="2:8" ht="17.100000000000001">
+    <row r="117" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B117" s="3" t="s">
         <v>35</v>
       </c>
@@ -4264,7 +4180,7 @@
       <c r="E117" s="8">
         <v>40422</v>
       </c>
-      <c r="F117" s="1">
+      <c r="F117" s="20">
         <v>2</v>
       </c>
       <c r="G117" s="4">
@@ -4274,7 +4190,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="118" spans="2:8" ht="17.100000000000001">
+    <row r="118" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B118" s="3" t="s">
         <v>44</v>
       </c>
@@ -4287,7 +4203,7 @@
       <c r="E118" s="8">
         <v>40422</v>
       </c>
-      <c r="F118" s="1">
+      <c r="F118" s="20">
         <v>2</v>
       </c>
       <c r="G118" s="4">
@@ -4297,7 +4213,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="119" spans="2:8" ht="17.100000000000001">
+    <row r="119" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B119" s="3" t="s">
         <v>38</v>
       </c>
@@ -4310,7 +4226,7 @@
       <c r="E119" s="8">
         <v>40422</v>
       </c>
-      <c r="F119" s="1">
+      <c r="F119" s="20">
         <v>2</v>
       </c>
       <c r="G119" s="4">
@@ -4320,7 +4236,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="120" spans="2:8" ht="17.100000000000001">
+    <row r="120" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B120" s="3" t="s">
         <v>60</v>
       </c>
@@ -4333,7 +4249,7 @@
       <c r="E120" s="8">
         <v>40422</v>
       </c>
-      <c r="F120" s="1">
+      <c r="F120" s="20">
         <v>2</v>
       </c>
       <c r="G120" s="4">
@@ -4343,7 +4259,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="121" spans="2:8" ht="17.100000000000001">
+    <row r="121" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B121" s="3" t="s">
         <v>53</v>
       </c>
@@ -4356,7 +4272,7 @@
       <c r="E121" s="8">
         <v>40422</v>
       </c>
-      <c r="F121" s="1">
+      <c r="F121" s="20">
         <v>2</v>
       </c>
       <c r="G121" s="4">
@@ -4366,7 +4282,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="122" spans="2:8" ht="17.100000000000001">
+    <row r="122" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B122" s="3" t="s">
         <v>84</v>
       </c>
@@ -4379,7 +4295,7 @@
       <c r="E122" s="8">
         <v>40422</v>
       </c>
-      <c r="F122" s="1">
+      <c r="F122" s="20">
         <v>2</v>
       </c>
       <c r="G122" s="4">
@@ -4389,7 +4305,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="123" spans="2:8" ht="17.100000000000001">
+    <row r="123" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B123" s="3" t="s">
         <v>85</v>
       </c>
@@ -4402,7 +4318,7 @@
       <c r="E123" s="8">
         <v>40422</v>
       </c>
-      <c r="F123" s="1">
+      <c r="F123" s="20">
         <v>2</v>
       </c>
       <c r="G123" s="4">
@@ -4412,7 +4328,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="124" spans="2:8" ht="17.100000000000001">
+    <row r="124" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B124" s="3" t="s">
         <v>52</v>
       </c>
@@ -4425,7 +4341,7 @@
       <c r="E124" s="8">
         <v>40422</v>
       </c>
-      <c r="F124" s="1">
+      <c r="F124" s="20">
         <v>2</v>
       </c>
       <c r="G124" s="4">
@@ -4435,7 +4351,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="125" spans="2:8" ht="17.100000000000001">
+    <row r="125" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B125" s="3" t="s">
         <v>49</v>
       </c>
@@ -4448,7 +4364,7 @@
       <c r="E125" s="8">
         <v>40422</v>
       </c>
-      <c r="F125" s="1">
+      <c r="F125" s="20">
         <v>2</v>
       </c>
       <c r="G125" s="4">
@@ -4458,7 +4374,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="126" spans="2:8" ht="17.100000000000001">
+    <row r="126" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B126" s="3" t="s">
         <v>65</v>
       </c>
@@ -4471,7 +4387,7 @@
       <c r="E126" s="8">
         <v>40422</v>
       </c>
-      <c r="F126" s="1">
+      <c r="F126" s="20">
         <v>1</v>
       </c>
       <c r="G126" s="4">
@@ -4481,7 +4397,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="127" spans="2:8" ht="17.100000000000001">
+    <row r="127" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B127" s="3" t="s">
         <v>86</v>
       </c>
@@ -4494,7 +4410,7 @@
       <c r="E127" s="8">
         <v>40422</v>
       </c>
-      <c r="F127" s="1">
+      <c r="F127" s="20">
         <v>1</v>
       </c>
       <c r="G127" s="4">
@@ -4504,7 +4420,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="128" spans="2:8" ht="17.100000000000001">
+    <row r="128" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B128" s="3" t="s">
         <v>66</v>
       </c>
@@ -4517,7 +4433,7 @@
       <c r="E128" s="8">
         <v>40422</v>
       </c>
-      <c r="F128" s="1">
+      <c r="F128" s="20">
         <v>1</v>
       </c>
       <c r="G128" s="4">
@@ -4527,7 +4443,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="17.100000000000001">
+    <row r="129" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B129" s="3" t="s">
         <v>67</v>
       </c>
@@ -4540,7 +4456,7 @@
       <c r="E129" s="8">
         <v>40422</v>
       </c>
-      <c r="F129" s="1">
+      <c r="F129" s="20">
         <v>1</v>
       </c>
       <c r="G129" s="4">
@@ -4550,7 +4466,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="17.100000000000001">
+    <row r="130" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B130" s="3" t="s">
         <v>68</v>
       </c>
@@ -4563,7 +4479,7 @@
       <c r="E130" s="8">
         <v>40422</v>
       </c>
-      <c r="F130" s="1">
+      <c r="F130" s="20">
         <v>1</v>
       </c>
       <c r="G130" s="4">
@@ -4573,7 +4489,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="17.100000000000001">
+    <row r="131" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B131" s="3" t="s">
         <v>40</v>
       </c>
@@ -4586,7 +4502,7 @@
       <c r="E131" s="8">
         <v>40422</v>
       </c>
-      <c r="F131" s="1">
+      <c r="F131" s="20">
         <v>1</v>
       </c>
       <c r="G131" s="4">
@@ -4596,7 +4512,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="17.100000000000001">
+    <row r="132" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B132" s="3" t="s">
         <v>56</v>
       </c>
@@ -4609,7 +4525,7 @@
       <c r="E132" s="8">
         <v>40422</v>
       </c>
-      <c r="F132" s="1">
+      <c r="F132" s="20">
         <v>1</v>
       </c>
       <c r="G132" s="4">
@@ -4619,7 +4535,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="17.100000000000001">
+    <row r="133" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B133" s="3" t="s">
         <v>65</v>
       </c>
@@ -4632,7 +4548,7 @@
       <c r="E133" s="8">
         <v>40422</v>
       </c>
-      <c r="F133" s="1">
+      <c r="F133" s="20">
         <v>1</v>
       </c>
       <c r="G133" s="4">
@@ -4642,7 +4558,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="17.100000000000001">
+    <row r="134" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B134" s="3" t="s">
         <v>87</v>
       </c>
@@ -4655,7 +4571,7 @@
       <c r="E134" s="8">
         <v>40422</v>
       </c>
-      <c r="F134" s="1">
+      <c r="F134" s="20">
         <v>1</v>
       </c>
       <c r="G134" s="4">
@@ -4665,7 +4581,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="17.100000000000001">
+    <row r="135" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B135" s="3" t="s">
         <v>88</v>
       </c>
@@ -4678,7 +4594,7 @@
       <c r="E135" s="8">
         <v>40422</v>
       </c>
-      <c r="F135" s="1">
+      <c r="F135" s="20">
         <v>1</v>
       </c>
       <c r="G135" s="4">
@@ -4688,7 +4604,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="17.100000000000001">
+    <row r="136" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B136" s="3" t="s">
         <v>89</v>
       </c>
@@ -4701,7 +4617,7 @@
       <c r="E136" s="8">
         <v>40422</v>
       </c>
-      <c r="F136" s="1">
+      <c r="F136" s="20">
         <v>1</v>
       </c>
       <c r="G136" s="4">
@@ -4711,7 +4627,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="17.100000000000001">
+    <row r="137" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B137" s="3" t="s">
         <v>9</v>
       </c>
@@ -4724,7 +4640,7 @@
       <c r="E137" s="8">
         <v>40422</v>
       </c>
-      <c r="F137" s="1">
+      <c r="F137" s="20">
         <v>1</v>
       </c>
       <c r="G137" s="4">
@@ -4734,7 +4650,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="17.100000000000001">
+    <row r="138" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B138" s="3" t="s">
         <v>51</v>
       </c>
@@ -4747,7 +4663,7 @@
       <c r="E138" s="8">
         <v>40422</v>
       </c>
-      <c r="F138" s="1">
+      <c r="F138" s="20">
         <v>1</v>
       </c>
       <c r="G138" s="4">
@@ -4757,7 +4673,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="17.100000000000001">
+    <row r="139" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B139" s="3" t="s">
         <v>74</v>
       </c>
@@ -4770,7 +4686,7 @@
       <c r="E139" s="8">
         <v>40422</v>
       </c>
-      <c r="F139" s="1">
+      <c r="F139" s="20">
         <v>1</v>
       </c>
       <c r="G139" s="4">
@@ -4780,7 +4696,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="17.100000000000001">
+    <row r="140" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B140" s="3" t="s">
         <v>77</v>
       </c>
@@ -4793,7 +4709,7 @@
       <c r="E140" s="8">
         <v>40422</v>
       </c>
-      <c r="F140" s="1">
+      <c r="F140" s="20">
         <v>75</v>
       </c>
       <c r="G140" s="4">
@@ -4803,7 +4719,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>9</v>
       </c>
@@ -4816,7 +4732,7 @@
       <c r="E141" s="8">
         <v>40787</v>
       </c>
-      <c r="F141" s="1">
+      <c r="F141" s="20">
         <v>7</v>
       </c>
       <c r="G141" s="12" t="s">
@@ -4826,7 +4742,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>21</v>
       </c>
@@ -4839,7 +4755,7 @@
       <c r="E142" s="8">
         <v>40787</v>
       </c>
-      <c r="F142" s="1">
+      <c r="F142" s="20">
         <v>6</v>
       </c>
       <c r="G142" s="12" t="s">
@@ -4849,7 +4765,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>15</v>
       </c>
@@ -4862,7 +4778,7 @@
       <c r="E143" s="8">
         <v>40787</v>
       </c>
-      <c r="F143" s="1">
+      <c r="F143" s="20">
         <v>5</v>
       </c>
       <c r="G143" s="12" t="s">
@@ -4872,7 +4788,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>94</v>
       </c>
@@ -4885,7 +4801,7 @@
       <c r="E144" s="8">
         <v>40787</v>
       </c>
-      <c r="F144" s="1">
+      <c r="F144" s="20">
         <v>2</v>
       </c>
       <c r="G144" s="4" t="s">
@@ -4895,7 +4811,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>80</v>
       </c>
@@ -4908,7 +4824,7 @@
       <c r="E145" s="8">
         <v>40787</v>
       </c>
-      <c r="F145" s="1">
+      <c r="F145" s="20">
         <v>1</v>
       </c>
       <c r="G145" s="4" t="s">
@@ -4918,7 +4834,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>20</v>
       </c>
@@ -4931,7 +4847,7 @@
       <c r="E146" s="8">
         <v>40787</v>
       </c>
-      <c r="F146" s="1">
+      <c r="F146" s="20">
         <v>1</v>
       </c>
       <c r="G146" s="4" t="s">
@@ -4941,7 +4857,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>25</v>
       </c>
@@ -4954,7 +4870,7 @@
       <c r="E147" s="8">
         <v>40787</v>
       </c>
-      <c r="F147" s="1">
+      <c r="F147" s="20">
         <v>1</v>
       </c>
       <c r="G147" s="4" t="s">
@@ -4964,7 +4880,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>27</v>
       </c>
@@ -4977,7 +4893,7 @@
       <c r="E148" s="8">
         <v>40787</v>
       </c>
-      <c r="F148" s="1">
+      <c r="F148" s="20">
         <v>1</v>
       </c>
       <c r="G148" s="4" t="s">
@@ -4987,7 +4903,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>28</v>
       </c>
@@ -5000,7 +4916,7 @@
       <c r="E149" s="8">
         <v>40787</v>
       </c>
-      <c r="F149" s="1">
+      <c r="F149" s="20">
         <v>1</v>
       </c>
       <c r="G149" s="4" t="s">
@@ -5010,7 +4926,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>58</v>
       </c>
@@ -5023,7 +4939,7 @@
       <c r="E150" s="8">
         <v>40787</v>
       </c>
-      <c r="F150" s="1">
+      <c r="F150" s="20">
         <v>25</v>
       </c>
       <c r="G150" s="4" t="s">
@@ -5033,7 +4949,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B151" s="1" t="s">
         <v>98</v>
       </c>
@@ -5046,7 +4962,7 @@
       <c r="E151" s="8">
         <v>40787</v>
       </c>
-      <c r="F151" s="1">
+      <c r="F151" s="20">
         <v>3</v>
       </c>
       <c r="G151" s="1" t="s">
@@ -5056,7 +4972,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B152" s="1" t="s">
         <v>100</v>
       </c>
@@ -5069,7 +4985,7 @@
       <c r="E152" s="8">
         <v>40787</v>
       </c>
-      <c r="F152" s="1">
+      <c r="F152" s="20">
         <v>3</v>
       </c>
       <c r="G152" s="1" t="s">
@@ -5079,7 +4995,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B153" s="1" t="s">
         <v>101</v>
       </c>
@@ -5092,7 +5008,7 @@
       <c r="E153" s="8">
         <v>40787</v>
       </c>
-      <c r="F153" s="1">
+      <c r="F153" s="20">
         <v>3</v>
       </c>
       <c r="G153" s="1" t="s">
@@ -5102,7 +5018,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B154" s="1" t="s">
         <v>102</v>
       </c>
@@ -5115,7 +5031,7 @@
       <c r="E154" s="8">
         <v>40787</v>
       </c>
-      <c r="F154" s="1">
+      <c r="F154" s="20">
         <v>2</v>
       </c>
       <c r="G154" s="1" t="s">
@@ -5125,7 +5041,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B155" s="1" t="s">
         <v>103</v>
       </c>
@@ -5138,7 +5054,7 @@
       <c r="E155" s="8">
         <v>40787</v>
       </c>
-      <c r="F155" s="1">
+      <c r="F155" s="20">
         <v>2</v>
       </c>
       <c r="G155" s="1" t="s">
@@ -5148,7 +5064,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B156" s="1" t="s">
         <v>104</v>
       </c>
@@ -5161,7 +5077,7 @@
       <c r="E156" s="8">
         <v>40787</v>
       </c>
-      <c r="F156" s="1">
+      <c r="F156" s="20">
         <v>2</v>
       </c>
       <c r="G156" s="1" t="s">
@@ -5171,7 +5087,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B157" s="1" t="s">
         <v>105</v>
       </c>
@@ -5184,7 +5100,7 @@
       <c r="E157" s="8">
         <v>40787</v>
       </c>
-      <c r="F157" s="1">
+      <c r="F157" s="20">
         <v>1</v>
       </c>
       <c r="G157" s="1" t="s">
@@ -5194,7 +5110,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B158" s="1" t="s">
         <v>106</v>
       </c>
@@ -5207,7 +5123,7 @@
       <c r="E158" s="8">
         <v>40787</v>
       </c>
-      <c r="F158" s="1">
+      <c r="F158" s="20">
         <v>1</v>
       </c>
       <c r="G158" s="1" t="s">
@@ -5217,7 +5133,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B159" s="1" t="s">
         <v>107</v>
       </c>
@@ -5230,7 +5146,7 @@
       <c r="E159" s="8">
         <v>40787</v>
       </c>
-      <c r="F159" s="1">
+      <c r="F159" s="20">
         <v>1</v>
       </c>
       <c r="G159" s="1" t="s">
@@ -5240,7 +5156,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B160" s="1" t="s">
         <v>108</v>
       </c>
@@ -5253,7 +5169,7 @@
       <c r="E160" s="8">
         <v>40787</v>
       </c>
-      <c r="F160" s="1">
+      <c r="F160" s="20">
         <v>1</v>
       </c>
       <c r="G160" s="1" t="s">
@@ -5263,7 +5179,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B161" s="1" t="s">
         <v>109</v>
       </c>
@@ -5276,7 +5192,7 @@
       <c r="E161" s="8">
         <v>40787</v>
       </c>
-      <c r="F161" s="1">
+      <c r="F161" s="20">
         <v>1</v>
       </c>
       <c r="G161" s="1" t="s">
@@ -5286,7 +5202,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B162" s="1" t="s">
         <v>110</v>
       </c>
@@ -5299,7 +5215,7 @@
       <c r="E162" s="8">
         <v>40787</v>
       </c>
-      <c r="F162" s="1">
+      <c r="F162" s="20">
         <v>1</v>
       </c>
       <c r="G162" s="1" t="s">
@@ -5309,7 +5225,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B163" s="1" t="s">
         <v>111</v>
       </c>
@@ -5322,7 +5238,7 @@
       <c r="E163" s="8">
         <v>40787</v>
       </c>
-      <c r="F163" s="1">
+      <c r="F163" s="20">
         <v>1</v>
       </c>
       <c r="G163" s="1" t="s">
@@ -5332,7 +5248,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B164" s="1" t="s">
         <v>112</v>
       </c>
@@ -5345,7 +5261,7 @@
       <c r="E164" s="8">
         <v>40787</v>
       </c>
-      <c r="F164" s="1">
+      <c r="F164" s="20">
         <v>1</v>
       </c>
       <c r="G164" s="1" t="s">
@@ -5355,7 +5271,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B165" s="1" t="s">
         <v>113</v>
       </c>
@@ -5368,7 +5284,7 @@
       <c r="E165" s="8">
         <v>40787</v>
       </c>
-      <c r="F165" s="1">
+      <c r="F165" s="20">
         <v>1</v>
       </c>
       <c r="G165" s="1" t="s">
@@ -5378,7 +5294,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B166" s="1" t="s">
         <v>114</v>
       </c>
@@ -5391,7 +5307,7 @@
       <c r="E166" s="8">
         <v>40787</v>
       </c>
-      <c r="F166" s="1">
+      <c r="F166" s="20">
         <v>1</v>
       </c>
       <c r="G166" s="1" t="s">
@@ -5401,7 +5317,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B167" s="1" t="s">
         <v>115</v>
       </c>
@@ -5414,7 +5330,7 @@
       <c r="E167" s="8">
         <v>40787</v>
       </c>
-      <c r="F167" s="1">
+      <c r="F167" s="20">
         <v>1</v>
       </c>
       <c r="G167" s="1" t="s">
@@ -5424,7 +5340,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B168" s="1" t="s">
         <v>116</v>
       </c>
@@ -5437,7 +5353,7 @@
       <c r="E168" s="8">
         <v>40787</v>
       </c>
-      <c r="F168" s="1">
+      <c r="F168" s="20">
         <v>1</v>
       </c>
       <c r="G168" s="1" t="s">
@@ -5447,7 +5363,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B169" s="1" t="s">
         <v>77</v>
       </c>
@@ -5460,7 +5376,7 @@
       <c r="E169" s="8">
         <v>40787</v>
       </c>
-      <c r="F169" s="1">
+      <c r="F169" s="20">
         <v>28</v>
       </c>
       <c r="G169" s="1" t="s">
@@ -5470,7 +5386,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>21</v>
       </c>
@@ -5484,7 +5400,7 @@
       <c r="E170" s="8">
         <v>41244</v>
       </c>
-      <c r="F170" s="1">
+      <c r="F170" s="20">
         <v>6</v>
       </c>
       <c r="G170" s="1" t="s">
@@ -5494,7 +5410,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>15</v>
       </c>
@@ -5507,7 +5423,7 @@
       <c r="E171" s="8">
         <v>41244</v>
       </c>
-      <c r="F171" s="1">
+      <c r="F171" s="20">
         <v>3</v>
       </c>
       <c r="G171" s="1" t="s">
@@ -5517,7 +5433,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>19</v>
       </c>
@@ -5530,7 +5446,7 @@
       <c r="E172" s="8">
         <v>41244</v>
       </c>
-      <c r="F172" s="1">
+      <c r="F172" s="20">
         <v>2</v>
       </c>
       <c r="G172" s="1" t="s">
@@ -5540,7 +5456,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>27</v>
       </c>
@@ -5553,7 +5469,7 @@
       <c r="E173" s="8">
         <v>41244</v>
       </c>
-      <c r="F173" s="1">
+      <c r="F173" s="20">
         <v>2</v>
       </c>
       <c r="G173" s="1" t="s">
@@ -5563,7 +5479,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>23</v>
       </c>
@@ -5576,7 +5492,7 @@
       <c r="E174" s="8">
         <v>41244</v>
       </c>
-      <c r="F174" s="1">
+      <c r="F174" s="20">
         <v>2</v>
       </c>
       <c r="G174" s="1" t="s">
@@ -5586,7 +5502,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>29</v>
       </c>
@@ -5599,7 +5515,7 @@
       <c r="E175" s="8">
         <v>41244</v>
       </c>
-      <c r="F175" s="1">
+      <c r="F175" s="20">
         <v>1</v>
       </c>
       <c r="G175" s="1" t="s">
@@ -5609,7 +5525,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>28</v>
       </c>
@@ -5622,7 +5538,7 @@
       <c r="E176" s="8">
         <v>41244</v>
       </c>
-      <c r="F176" s="1">
+      <c r="F176" s="20">
         <v>1</v>
       </c>
       <c r="G176" s="1" t="s">
@@ -5632,7 +5548,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>58</v>
       </c>
@@ -5645,7 +5561,7 @@
       <c r="E177" s="8">
         <v>41244</v>
       </c>
-      <c r="F177" s="1">
+      <c r="F177" s="20">
         <v>17</v>
       </c>
       <c r="G177" s="1" t="s">
@@ -5655,7 +5571,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B178" s="1" t="s">
         <v>62</v>
       </c>
@@ -5668,7 +5584,7 @@
       <c r="E178" s="8">
         <v>41244</v>
       </c>
-      <c r="F178" s="1">
+      <c r="F178" s="20">
         <v>6</v>
       </c>
       <c r="G178" s="1" t="s">
@@ -5678,7 +5594,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B179" s="1" t="s">
         <v>37</v>
       </c>
@@ -5691,7 +5607,7 @@
       <c r="E179" s="8">
         <v>41244</v>
       </c>
-      <c r="F179" s="1">
+      <c r="F179" s="20">
         <v>4</v>
       </c>
       <c r="G179" s="1" t="s">
@@ -5701,7 +5617,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B180" s="1" t="s">
         <v>42</v>
       </c>
@@ -5714,7 +5630,7 @@
       <c r="E180" s="8">
         <v>41244</v>
       </c>
-      <c r="F180" s="1">
+      <c r="F180" s="20">
         <v>2</v>
       </c>
       <c r="G180" s="1" t="s">
@@ -5724,7 +5640,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B181" s="1" t="s">
         <v>59</v>
       </c>
@@ -5737,7 +5653,7 @@
       <c r="E181" s="8">
         <v>41244</v>
       </c>
-      <c r="F181" s="1">
+      <c r="F181" s="20">
         <v>2</v>
       </c>
       <c r="G181" s="1" t="s">
@@ -5747,7 +5663,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B182" s="1" t="s">
         <v>35</v>
       </c>
@@ -5760,7 +5676,7 @@
       <c r="E182" s="8">
         <v>41244</v>
       </c>
-      <c r="F182" s="1">
+      <c r="F182" s="20">
         <v>2</v>
       </c>
       <c r="G182" s="1" t="s">
@@ -5770,7 +5686,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B183" s="1" t="s">
         <v>69</v>
       </c>
@@ -5783,7 +5699,7 @@
       <c r="E183" s="8">
         <v>41244</v>
       </c>
-      <c r="F183" s="1">
+      <c r="F183" s="20">
         <v>1</v>
       </c>
       <c r="G183" s="1" t="s">
@@ -5793,7 +5709,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B184" s="1" t="s">
         <v>125</v>
       </c>
@@ -5806,7 +5722,7 @@
       <c r="E184" s="8">
         <v>41244</v>
       </c>
-      <c r="F184" s="1">
+      <c r="F184" s="20">
         <v>1</v>
       </c>
       <c r="G184" s="1" t="s">
@@ -5816,7 +5732,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B185" s="1" t="s">
         <v>126</v>
       </c>
@@ -5829,7 +5745,7 @@
       <c r="E185" s="8">
         <v>41244</v>
       </c>
-      <c r="F185" s="1">
+      <c r="F185" s="20">
         <v>1</v>
       </c>
       <c r="G185" s="1" t="s">
@@ -5839,7 +5755,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B186" s="1" t="s">
         <v>127</v>
       </c>
@@ -5852,7 +5768,7 @@
       <c r="E186" s="8">
         <v>41244</v>
       </c>
-      <c r="F186" s="1">
+      <c r="F186" s="20">
         <v>1</v>
       </c>
       <c r="G186" s="1" t="s">
@@ -5862,7 +5778,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B187" s="1" t="s">
         <v>51</v>
       </c>
@@ -5875,7 +5791,7 @@
       <c r="E187" s="8">
         <v>41244</v>
       </c>
-      <c r="F187" s="1">
+      <c r="F187" s="20">
         <v>1</v>
       </c>
       <c r="G187" s="1" t="s">
@@ -5885,7 +5801,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B188" s="1" t="s">
         <v>55</v>
       </c>
@@ -5898,7 +5814,7 @@
       <c r="E188" s="8">
         <v>41244</v>
       </c>
-      <c r="F188" s="1">
+      <c r="F188" s="20">
         <v>1</v>
       </c>
       <c r="G188" s="1" t="s">
@@ -5908,7 +5824,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B189" s="1" t="s">
         <v>128</v>
       </c>
@@ -5921,7 +5837,7 @@
       <c r="E189" s="8">
         <v>41244</v>
       </c>
-      <c r="F189" s="1">
+      <c r="F189" s="20">
         <v>1</v>
       </c>
       <c r="G189" s="1" t="s">
@@ -5931,7 +5847,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B190" s="1" t="s">
         <v>49</v>
       </c>
@@ -5944,7 +5860,7 @@
       <c r="E190" s="8">
         <v>41244</v>
       </c>
-      <c r="F190" s="1">
+      <c r="F190" s="20">
         <v>1</v>
       </c>
       <c r="G190" s="1" t="s">
@@ -5954,7 +5870,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B191" s="1" t="s">
         <v>129</v>
       </c>
@@ -5967,7 +5883,7 @@
       <c r="E191" s="8">
         <v>41244</v>
       </c>
-      <c r="F191" s="1">
+      <c r="F191" s="20">
         <v>1</v>
       </c>
       <c r="G191" s="1" t="s">
@@ -5977,7 +5893,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B192" s="1" t="s">
         <v>38</v>
       </c>
@@ -5990,7 +5906,7 @@
       <c r="E192" s="8">
         <v>41244</v>
       </c>
-      <c r="F192" s="1">
+      <c r="F192" s="20">
         <v>1</v>
       </c>
       <c r="G192" s="1" t="s">
@@ -6000,7 +5916,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B193" s="1" t="s">
         <v>40</v>
       </c>
@@ -6013,7 +5929,7 @@
       <c r="E193" s="8">
         <v>41244</v>
       </c>
-      <c r="F193" s="1">
+      <c r="F193" s="20">
         <v>1</v>
       </c>
       <c r="G193" s="1" t="s">
@@ -6023,7 +5939,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B194" s="1" t="s">
         <v>130</v>
       </c>
@@ -6036,7 +5952,7 @@
       <c r="E194" s="8">
         <v>41244</v>
       </c>
-      <c r="F194" s="2">
+      <c r="F194" s="19">
         <v>27</v>
       </c>
       <c r="G194">
@@ -6046,7 +5962,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="13" t="s">
         <v>21</v>
       </c>
@@ -6059,7 +5975,7 @@
       <c r="E195" s="8">
         <v>41609</v>
       </c>
-      <c r="F195" s="1">
+      <c r="F195" s="20">
         <v>12</v>
       </c>
       <c r="G195" s="4">
@@ -6069,7 +5985,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="13" t="s">
         <v>31</v>
       </c>
@@ -6082,7 +5998,7 @@
       <c r="E196" s="8">
         <v>41609</v>
       </c>
-      <c r="F196" s="1">
+      <c r="F196" s="20">
         <v>6</v>
       </c>
       <c r="G196" s="4">
@@ -6092,7 +6008,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="13" t="s">
         <v>15</v>
       </c>
@@ -6105,7 +6021,7 @@
       <c r="E197" s="8">
         <v>41609</v>
       </c>
-      <c r="F197" s="1">
+      <c r="F197" s="20">
         <v>4</v>
       </c>
       <c r="G197" s="4">
@@ -6115,7 +6031,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="13" t="s">
         <v>19</v>
       </c>
@@ -6128,7 +6044,7 @@
       <c r="E198" s="8">
         <v>41609</v>
       </c>
-      <c r="F198" s="1">
+      <c r="F198" s="20">
         <v>4</v>
       </c>
       <c r="G198" s="4">
@@ -6138,7 +6054,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="13" t="s">
         <v>25</v>
       </c>
@@ -6151,7 +6067,7 @@
       <c r="E199" s="8">
         <v>41609</v>
       </c>
-      <c r="F199" s="1">
+      <c r="F199" s="20">
         <v>3</v>
       </c>
       <c r="G199" s="4">
@@ -6161,7 +6077,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="13" t="s">
         <v>22</v>
       </c>
@@ -6174,7 +6090,7 @@
       <c r="E200" s="8">
         <v>41609</v>
       </c>
-      <c r="F200" s="1">
+      <c r="F200" s="20">
         <v>2</v>
       </c>
       <c r="G200" s="4">
@@ -6184,7 +6100,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="13" t="s">
         <v>9</v>
       </c>
@@ -6197,7 +6113,7 @@
       <c r="E201" s="8">
         <v>41609</v>
       </c>
-      <c r="F201" s="1">
+      <c r="F201" s="20">
         <v>2</v>
       </c>
       <c r="G201" s="4">
@@ -6207,7 +6123,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="13" t="s">
         <v>26</v>
       </c>
@@ -6220,7 +6136,7 @@
       <c r="E202" s="8">
         <v>41609</v>
       </c>
-      <c r="F202" s="1">
+      <c r="F202" s="20">
         <v>1</v>
       </c>
       <c r="G202" s="4">
@@ -6230,7 +6146,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="13" t="s">
         <v>20</v>
       </c>
@@ -6244,7 +6160,7 @@
       <c r="E203" s="8">
         <v>41609</v>
       </c>
-      <c r="F203" s="1">
+      <c r="F203" s="20">
         <v>1</v>
       </c>
       <c r="G203" s="4">
@@ -6254,7 +6170,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="13" t="s">
         <v>132</v>
       </c>
@@ -6267,7 +6183,7 @@
       <c r="E204" s="8">
         <v>41609</v>
       </c>
-      <c r="F204" s="1">
+      <c r="F204" s="20">
         <v>1</v>
       </c>
       <c r="G204" s="4">
@@ -6277,7 +6193,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="13" t="s">
         <v>27</v>
       </c>
@@ -6290,7 +6206,7 @@
       <c r="E205" s="8">
         <v>41609</v>
       </c>
-      <c r="F205" s="1">
+      <c r="F205" s="20">
         <v>1</v>
       </c>
       <c r="G205" s="4">
@@ -6300,7 +6216,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>58</v>
       </c>
@@ -6314,7 +6230,7 @@
       <c r="E206" s="8">
         <v>41609</v>
       </c>
-      <c r="F206" s="1">
+      <c r="F206" s="20">
         <v>37</v>
       </c>
       <c r="G206" s="4">
@@ -6324,7 +6240,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B207" s="13" t="s">
         <v>133</v>
       </c>
@@ -6337,7 +6253,7 @@
       <c r="E207" s="8">
         <v>41609</v>
       </c>
-      <c r="F207" s="1">
+      <c r="F207" s="20">
         <v>3</v>
       </c>
       <c r="G207" s="4">
@@ -6347,7 +6263,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B208" s="13" t="s">
         <v>134</v>
       </c>
@@ -6360,7 +6276,7 @@
       <c r="E208" s="8">
         <v>41609</v>
       </c>
-      <c r="F208" s="1">
+      <c r="F208" s="20">
         <v>3</v>
       </c>
       <c r="G208" s="4">
@@ -6370,7 +6286,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="209" spans="2:8">
+    <row r="209" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B209" s="13" t="s">
         <v>108</v>
       </c>
@@ -6383,7 +6299,7 @@
       <c r="E209" s="8">
         <v>41609</v>
       </c>
-      <c r="F209" s="1">
+      <c r="F209" s="20">
         <v>3</v>
       </c>
       <c r="G209" s="4">
@@ -6393,7 +6309,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="210" spans="2:8">
+    <row r="210" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B210" s="13" t="s">
         <v>107</v>
       </c>
@@ -6406,7 +6322,7 @@
       <c r="E210" s="8">
         <v>41609</v>
       </c>
-      <c r="F210" s="1">
+      <c r="F210" s="20">
         <v>2</v>
       </c>
       <c r="G210" s="4">
@@ -6416,7 +6332,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="211" spans="2:8">
+    <row r="211" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B211" s="13" t="s">
         <v>104</v>
       </c>
@@ -6429,7 +6345,7 @@
       <c r="E211" s="8">
         <v>41609</v>
       </c>
-      <c r="F211" s="1">
+      <c r="F211" s="20">
         <v>2</v>
       </c>
       <c r="G211" s="4">
@@ -6439,7 +6355,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="212" spans="2:8">
+    <row r="212" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B212" s="13" t="s">
         <v>135</v>
       </c>
@@ -6452,7 +6368,7 @@
       <c r="E212" s="8">
         <v>41609</v>
       </c>
-      <c r="F212" s="1">
+      <c r="F212" s="20">
         <v>2</v>
       </c>
       <c r="G212" s="4">
@@ -6462,7 +6378,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="213" spans="2:8">
+    <row r="213" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B213" s="13" t="s">
         <v>136</v>
       </c>
@@ -6475,7 +6391,7 @@
       <c r="E213" s="8">
         <v>41609</v>
       </c>
-      <c r="F213" s="1">
+      <c r="F213" s="20">
         <v>2</v>
       </c>
       <c r="G213" s="4">
@@ -6485,7 +6401,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="214" spans="2:8">
+    <row r="214" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B214" s="13" t="s">
         <v>137</v>
       </c>
@@ -6498,7 +6414,7 @@
       <c r="E214" s="8">
         <v>41609</v>
       </c>
-      <c r="F214" s="1">
+      <c r="F214" s="20">
         <v>1</v>
       </c>
       <c r="G214" s="4">
@@ -6508,7 +6424,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="215" spans="2:8">
+    <row r="215" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B215" s="13" t="s">
         <v>138</v>
       </c>
@@ -6521,7 +6437,7 @@
       <c r="E215" s="8">
         <v>41609</v>
       </c>
-      <c r="F215" s="1">
+      <c r="F215" s="20">
         <v>1</v>
       </c>
       <c r="G215" s="4">
@@ -6531,7 +6447,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="216" spans="2:8">
+    <row r="216" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B216" s="13" t="s">
         <v>139</v>
       </c>
@@ -6544,7 +6460,7 @@
       <c r="E216" s="8">
         <v>41609</v>
       </c>
-      <c r="F216" s="1">
+      <c r="F216" s="20">
         <v>1</v>
       </c>
       <c r="G216" s="4">
@@ -6554,7 +6470,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="217" spans="2:8">
+    <row r="217" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B217" s="13" t="s">
         <v>112</v>
       </c>
@@ -6567,7 +6483,7 @@
       <c r="E217" s="8">
         <v>41609</v>
       </c>
-      <c r="F217" s="1">
+      <c r="F217" s="20">
         <v>1</v>
       </c>
       <c r="G217" s="4">
@@ -6577,7 +6493,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="218" spans="2:8">
+    <row r="218" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B218" s="13" t="s">
         <v>140</v>
       </c>
@@ -6590,7 +6506,7 @@
       <c r="E218" s="8">
         <v>41609</v>
       </c>
-      <c r="F218" s="1">
+      <c r="F218" s="20">
         <v>1</v>
       </c>
       <c r="G218" s="4">
@@ -6600,7 +6516,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="219" spans="2:8">
+    <row r="219" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B219" s="13" t="s">
         <v>141</v>
       </c>
@@ -6613,7 +6529,7 @@
       <c r="E219" s="8">
         <v>41609</v>
       </c>
-      <c r="F219" s="1">
+      <c r="F219" s="20">
         <v>1</v>
       </c>
       <c r="G219" s="4">
@@ -6623,7 +6539,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="220" spans="2:8">
+    <row r="220" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B220" s="13" t="s">
         <v>142</v>
       </c>
@@ -6636,7 +6552,7 @@
       <c r="E220" s="8">
         <v>41609</v>
       </c>
-      <c r="F220" s="1">
+      <c r="F220" s="20">
         <v>1</v>
       </c>
       <c r="G220" s="4">
@@ -6646,7 +6562,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="221" spans="2:8">
+    <row r="221" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B221" s="13" t="s">
         <v>143</v>
       </c>
@@ -6659,7 +6575,7 @@
       <c r="E221" s="8">
         <v>41609</v>
       </c>
-      <c r="F221" s="1">
+      <c r="F221" s="20">
         <v>1</v>
       </c>
       <c r="G221" s="4">
@@ -6669,7 +6585,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="222" spans="2:8">
+    <row r="222" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B222" s="13" t="s">
         <v>144</v>
       </c>
@@ -6682,7 +6598,7 @@
       <c r="E222" s="8">
         <v>41609</v>
       </c>
-      <c r="F222" s="1">
+      <c r="F222" s="20">
         <v>1</v>
       </c>
       <c r="G222" s="4">
@@ -6692,7 +6608,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="223" spans="2:8">
+    <row r="223" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B223" s="13" t="s">
         <v>101</v>
       </c>
@@ -6705,7 +6621,7 @@
       <c r="E223" s="8">
         <v>41609</v>
       </c>
-      <c r="F223" s="1">
+      <c r="F223" s="20">
         <v>1</v>
       </c>
       <c r="G223" s="4">
@@ -6715,7 +6631,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="224" spans="2:8">
+    <row r="224" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B224" s="13" t="s">
         <v>145</v>
       </c>
@@ -6728,7 +6644,7 @@
       <c r="E224" s="8">
         <v>41609</v>
       </c>
-      <c r="F224" s="1">
+      <c r="F224" s="20">
         <v>1</v>
       </c>
       <c r="G224" s="4">
@@ -6738,7 +6654,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B225" s="13" t="s">
         <v>146</v>
       </c>
@@ -6751,7 +6667,7 @@
       <c r="E225" s="8">
         <v>41609</v>
       </c>
-      <c r="F225" s="1">
+      <c r="F225" s="20">
         <v>1</v>
       </c>
       <c r="G225" s="4">
@@ -6761,7 +6677,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B226" s="13" t="s">
         <v>147</v>
       </c>
@@ -6774,7 +6690,7 @@
       <c r="E226" s="8">
         <v>41609</v>
       </c>
-      <c r="F226" s="1">
+      <c r="F226" s="20">
         <v>1</v>
       </c>
       <c r="G226" s="4">
@@ -6784,7 +6700,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B227" s="13" t="s">
         <v>148</v>
       </c>
@@ -6797,7 +6713,7 @@
       <c r="E227" s="8">
         <v>41609</v>
       </c>
-      <c r="F227" s="1">
+      <c r="F227" s="20">
         <v>1</v>
       </c>
       <c r="G227" s="4">
@@ -6807,7 +6723,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B228" s="13" t="s">
         <v>149</v>
       </c>
@@ -6820,7 +6736,7 @@
       <c r="E228" s="8">
         <v>41609</v>
       </c>
-      <c r="F228" s="1">
+      <c r="F228" s="20">
         <v>1</v>
       </c>
       <c r="G228" s="4">
@@ -6830,7 +6746,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B229" s="1" t="s">
         <v>130</v>
       </c>
@@ -6843,7 +6759,7 @@
       <c r="E229" s="8">
         <v>41609</v>
       </c>
-      <c r="F229" s="1">
+      <c r="F229" s="20">
         <v>32</v>
       </c>
       <c r="G229" s="4">
@@ -6853,7 +6769,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B230" s="1" t="s">
         <v>150</v>
       </c>
@@ -6866,17 +6782,13 @@
       <c r="E230" s="8">
         <v>41974</v>
       </c>
-      <c r="F230" s="1" t="s">
+      <c r="F230" s="20"/>
+      <c r="G230" s="4"/>
+      <c r="H230" t="s">
         <v>151</v>
       </c>
-      <c r="G230" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="H230" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>23</v>
       </c>
@@ -6889,19 +6801,19 @@
       <c r="E231" s="8">
         <v>41974</v>
       </c>
-      <c r="F231" s="2">
+      <c r="F231" s="19">
         <v>2</v>
       </c>
       <c r="G231" s="7">
         <v>7.1400000000000005E-2</v>
       </c>
       <c r="H231" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A232" s="1" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
-      <c r="A232" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="C232" t="s">
         <v>10</v>
@@ -6912,19 +6824,19 @@
       <c r="E232" s="8">
         <v>42339</v>
       </c>
-      <c r="F232" s="1">
+      <c r="F232" s="20">
         <v>280</v>
       </c>
       <c r="G232" s="4">
         <v>1.5299999999999999E-2</v>
       </c>
       <c r="H232" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A233" s="1" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
-      <c r="A233" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="C233" t="s">
         <v>10</v>
@@ -6935,19 +6847,19 @@
       <c r="E233" s="8">
         <v>42339</v>
       </c>
-      <c r="F233" s="1">
+      <c r="F233" s="20">
         <v>63</v>
       </c>
       <c r="G233" s="4">
         <v>3.3999999999999998E-3</v>
       </c>
       <c r="H233" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C234" t="s">
         <v>10</v>
@@ -6958,19 +6870,19 @@
       <c r="E234" s="8">
         <v>42339</v>
       </c>
-      <c r="F234" s="1">
+      <c r="F234" s="20">
         <v>18</v>
       </c>
       <c r="G234" s="4">
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="H234" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C235" t="s">
         <v>10</v>
@@ -6981,19 +6893,19 @@
       <c r="E235" s="8">
         <v>42339</v>
       </c>
-      <c r="F235" s="1">
+      <c r="F235" s="20">
         <v>8</v>
       </c>
       <c r="G235" s="4">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="H235" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C236" t="s">
         <v>10</v>
@@ -7004,19 +6916,19 @@
       <c r="E236" s="8">
         <v>42339</v>
       </c>
-      <c r="F236" s="1">
+      <c r="F236" s="20">
         <v>4</v>
       </c>
       <c r="G236" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="H236" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B237" s="1"/>
       <c r="C237" t="s">
@@ -7028,17 +6940,17 @@
       <c r="E237" s="8">
         <v>42339</v>
       </c>
-      <c r="F237" s="1">
+      <c r="F237" s="20">
         <v>1</v>
       </c>
       <c r="G237" s="4">
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="H237" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>58</v>
       </c>
@@ -7051,17 +6963,17 @@
       <c r="E238" s="8">
         <v>42339</v>
       </c>
-      <c r="F238" s="1">
+      <c r="F238" s="20">
         <v>374</v>
       </c>
       <c r="G238" s="4">
         <v>2.0500000000000001E-2</v>
       </c>
       <c r="H238" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B239" s="1" t="s">
         <v>148</v>
       </c>
@@ -7074,17 +6986,17 @@
       <c r="E239" s="8">
         <v>42339</v>
       </c>
-      <c r="F239" s="1">
+      <c r="F239" s="20">
         <v>41</v>
       </c>
       <c r="G239" s="4">
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="H239" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B240" s="1" t="s">
         <v>108</v>
       </c>
@@ -7097,17 +7009,17 @@
       <c r="E240" s="8">
         <v>42339</v>
       </c>
-      <c r="F240" s="1">
+      <c r="F240" s="20">
         <v>6</v>
       </c>
       <c r="G240" s="4">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="H240" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B241" s="1" t="s">
         <v>134</v>
       </c>
@@ -7120,17 +7032,17 @@
       <c r="E241" s="8">
         <v>42339</v>
       </c>
-      <c r="F241" s="1">
+      <c r="F241" s="20">
         <v>4</v>
       </c>
       <c r="G241" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="H241" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B242" s="1" t="s">
         <v>129</v>
       </c>
@@ -7143,17 +7055,17 @@
       <c r="E242" s="8">
         <v>42339</v>
       </c>
-      <c r="F242" s="1">
+      <c r="F242" s="20">
         <v>2</v>
       </c>
       <c r="G242" s="4">
         <v>1E-4</v>
       </c>
       <c r="H242" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B243" s="1" t="s">
         <v>149</v>
       </c>
@@ -7166,19 +7078,19 @@
       <c r="E243" s="8">
         <v>42339</v>
       </c>
-      <c r="F243" s="1">
+      <c r="F243" s="20">
         <v>2</v>
       </c>
       <c r="G243" s="4">
         <v>1E-4</v>
       </c>
       <c r="H243" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B244" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C244" t="s">
         <v>36</v>
@@ -7189,19 +7101,19 @@
       <c r="E244" s="8">
         <v>42339</v>
       </c>
-      <c r="F244" s="1">
+      <c r="F244" s="20">
         <v>2</v>
       </c>
       <c r="G244" s="4">
         <v>1E-4</v>
       </c>
       <c r="H244" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B245" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C245" t="s">
         <v>36</v>
@@ -7212,19 +7124,19 @@
       <c r="E245" s="8">
         <v>42339</v>
       </c>
-      <c r="F245" s="1">
+      <c r="F245" s="20">
         <v>2</v>
       </c>
       <c r="G245" s="4">
         <v>1E-4</v>
       </c>
       <c r="H245" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B246" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C246" t="s">
         <v>36</v>
@@ -7235,19 +7147,19 @@
       <c r="E246" s="8">
         <v>42339</v>
       </c>
-      <c r="F246" s="1">
+      <c r="F246" s="20">
         <v>1</v>
       </c>
       <c r="G246" s="4">
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="H246" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B247" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C247" t="s">
         <v>36</v>
@@ -7258,19 +7170,19 @@
       <c r="E247" s="8">
         <v>42339</v>
       </c>
-      <c r="F247" s="1">
+      <c r="F247" s="20">
         <v>1</v>
       </c>
       <c r="G247" s="4">
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="H247" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B248" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C248" t="s">
         <v>36</v>
@@ -7281,19 +7193,19 @@
       <c r="E248" s="8">
         <v>42339</v>
       </c>
-      <c r="F248" s="1">
+      <c r="F248" s="20">
         <v>1</v>
       </c>
       <c r="G248" s="4">
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="H248" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B249" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C249" t="s">
         <v>36</v>
@@ -7304,19 +7216,19 @@
       <c r="E249" s="8">
         <v>42339</v>
       </c>
-      <c r="F249" s="1">
+      <c r="F249" s="20">
         <v>1</v>
       </c>
       <c r="G249" s="4">
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="H249" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B250" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C250" t="s">
         <v>36</v>
@@ -7327,19 +7239,19 @@
       <c r="E250" s="8">
         <v>42339</v>
       </c>
-      <c r="F250" s="1">
+      <c r="F250" s="20">
         <v>1</v>
       </c>
       <c r="G250" s="4">
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="H250" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B251" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C251" t="s">
         <v>36</v>
@@ -7350,19 +7262,19 @@
       <c r="E251" s="8">
         <v>42339</v>
       </c>
-      <c r="F251" s="1">
+      <c r="F251" s="20">
         <v>1</v>
       </c>
       <c r="G251" s="4">
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="H251" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B252" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C252" t="s">
         <v>36</v>
@@ -7373,19 +7285,19 @@
       <c r="E252" s="8">
         <v>42339</v>
       </c>
-      <c r="F252" s="1">
+      <c r="F252" s="20">
         <v>1</v>
       </c>
       <c r="G252" s="4">
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="H252" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B253" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C253" t="s">
         <v>36</v>
@@ -7396,17 +7308,17 @@
       <c r="E253" s="8">
         <v>42339</v>
       </c>
-      <c r="F253" s="1">
+      <c r="F253" s="20">
         <v>1</v>
       </c>
       <c r="G253" s="4">
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="H253" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B254" s="1" t="s">
         <v>130</v>
       </c>
@@ -7419,19 +7331,19 @@
       <c r="E254" s="8">
         <v>42339</v>
       </c>
-      <c r="F254" s="1">
+      <c r="F254" s="20">
         <v>67</v>
       </c>
       <c r="G254" s="4">
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="H254" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B255" s="1"/>
       <c r="C255" t="s">
@@ -7443,19 +7355,19 @@
       <c r="E255" s="8">
         <v>42705</v>
       </c>
-      <c r="F255" s="1" t="s">
+      <c r="F255" s="20">
+        <v>10</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H255" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A256" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="G255" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H255" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
-      <c r="A256" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="C256" t="s">
         <v>10</v>
@@ -7466,19 +7378,19 @@
       <c r="E256" s="8">
         <v>42705</v>
       </c>
-      <c r="F256" s="1" t="s">
-        <v>175</v>
+      <c r="F256" s="20">
+        <v>3</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="H256" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C257" t="s">
         <v>10</v>
@@ -7489,19 +7401,19 @@
       <c r="E257" s="8">
         <v>42705</v>
       </c>
-      <c r="F257" s="1" t="s">
-        <v>178</v>
+      <c r="F257" s="20">
+        <v>1</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>179</v>
+        <v>247</v>
       </c>
       <c r="H257" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A258" s="1" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8">
-      <c r="A258" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="C258" t="s">
         <v>10</v>
@@ -7512,19 +7424,19 @@
       <c r="E258" s="8">
         <v>42705</v>
       </c>
-      <c r="F258" s="1" t="s">
-        <v>178</v>
+      <c r="F258" s="20">
+        <v>1</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>179</v>
+        <v>247</v>
       </c>
       <c r="H258" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C259" t="s">
         <v>10</v>
@@ -7535,19 +7447,19 @@
       <c r="E259" s="8">
         <v>42705</v>
       </c>
-      <c r="F259" s="1" t="s">
-        <v>182</v>
+      <c r="F259" s="20">
+        <v>15</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>183</v>
+        <v>248</v>
       </c>
       <c r="H259" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B260" s="1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C260" t="s">
         <v>36</v>
@@ -7558,19 +7470,19 @@
       <c r="E260" s="8">
         <v>42705</v>
       </c>
-      <c r="F260" s="1" t="s">
-        <v>185</v>
+      <c r="F260" s="20">
+        <v>200</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="H260" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B261" s="1" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C261" t="s">
         <v>36</v>
@@ -7581,19 +7493,19 @@
       <c r="E261" s="8">
         <v>42705</v>
       </c>
-      <c r="F261" s="1" t="s">
-        <v>188</v>
+      <c r="F261" s="20">
+        <v>11</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="H261" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B262" s="1" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="C262" t="s">
         <v>36</v>
@@ -7604,19 +7516,19 @@
       <c r="E262" s="8">
         <v>42705</v>
       </c>
-      <c r="F262" s="1" t="s">
+      <c r="F262" s="20">
+        <v>1</v>
+      </c>
+      <c r="G262" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H262" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B263" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="G262" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H262" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8">
-      <c r="B263" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="C263" t="s">
         <v>36</v>
@@ -7627,19 +7539,19 @@
       <c r="E263" s="8">
         <v>42705</v>
       </c>
-      <c r="F263" s="1" t="s">
-        <v>178</v>
+      <c r="F263" s="20">
+        <v>1</v>
       </c>
       <c r="G263" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H263" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B264" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="H263" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8">
-      <c r="B264" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C264" t="s">
         <v>36</v>
@@ -7650,19 +7562,19 @@
       <c r="E264" s="8">
         <v>42705</v>
       </c>
-      <c r="F264" s="1" t="s">
-        <v>178</v>
+      <c r="F264" s="20">
+        <v>1</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>179</v>
+        <v>247</v>
       </c>
       <c r="H264" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B265" s="1" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C265" t="s">
         <v>36</v>
@@ -7673,19 +7585,19 @@
       <c r="E265" s="8">
         <v>42705</v>
       </c>
-      <c r="F265" s="1" t="s">
-        <v>178</v>
+      <c r="F265" s="20">
+        <v>1</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>179</v>
+        <v>247</v>
       </c>
       <c r="H265" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B266" s="1" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C266" t="s">
         <v>36</v>
@@ -7696,17 +7608,17 @@
       <c r="E266" s="8">
         <v>42705</v>
       </c>
-      <c r="F266" s="1" t="s">
-        <v>195</v>
+      <c r="F266" s="20">
+        <v>5</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>196</v>
+        <v>251</v>
       </c>
       <c r="H266" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B267" s="1" t="s">
         <v>130</v>
       </c>
@@ -7716,19 +7628,19 @@
       <c r="E267" s="8">
         <v>42705</v>
       </c>
-      <c r="F267" s="1" t="s">
-        <v>197</v>
+      <c r="F267" s="20">
+        <v>214</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>198</v>
+        <v>252</v>
       </c>
       <c r="H267" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="C268" t="s">
         <v>10</v>
@@ -7739,19 +7651,19 @@
       <c r="E268" s="8">
         <v>43070</v>
       </c>
-      <c r="F268" s="1" t="s">
-        <v>200</v>
+      <c r="F268" s="20">
+        <v>108</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>201</v>
+        <v>253</v>
       </c>
       <c r="H268" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="C269" t="s">
         <v>10</v>
@@ -7762,19 +7674,19 @@
       <c r="E269" s="8">
         <v>43070</v>
       </c>
-      <c r="F269" s="1" t="s">
-        <v>204</v>
+      <c r="F269" s="20">
+        <v>2</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
       <c r="H269" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="C270" t="s">
         <v>10</v>
@@ -7785,19 +7697,19 @@
       <c r="E270" s="8">
         <v>43070</v>
       </c>
-      <c r="F270" s="1" t="s">
-        <v>204</v>
+      <c r="F270" s="20">
+        <v>2</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
       <c r="H270" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C271" t="s">
         <v>10</v>
@@ -7808,19 +7720,19 @@
       <c r="E271" s="8">
         <v>43070</v>
       </c>
-      <c r="F271" s="1" t="s">
-        <v>178</v>
+      <c r="F271" s="20">
+        <v>1</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>208</v>
+        <v>255</v>
       </c>
       <c r="H271" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="C272" t="s">
         <v>10</v>
@@ -7831,19 +7743,19 @@
       <c r="E272" s="8">
         <v>43070</v>
       </c>
-      <c r="F272" s="1" t="s">
-        <v>178</v>
+      <c r="F272" s="20">
+        <v>1</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>208</v>
+        <v>255</v>
       </c>
       <c r="H272" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B273" s="1"/>
       <c r="C273" t="s">
@@ -7855,19 +7767,19 @@
       <c r="E273" s="8">
         <v>43070</v>
       </c>
-      <c r="F273" s="1" t="s">
-        <v>210</v>
+      <c r="F273" s="20">
+        <v>114</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="H273" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B274" s="1" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="C274" t="s">
         <v>36</v>
@@ -7878,19 +7790,19 @@
       <c r="E274" s="8">
         <v>43070</v>
       </c>
-      <c r="F274" s="1" t="s">
-        <v>185</v>
+      <c r="F274" s="20">
+        <v>200</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>212</v>
+        <v>257</v>
       </c>
       <c r="H274" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B275" s="1" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="C275" t="s">
         <v>36</v>
@@ -7901,19 +7813,19 @@
       <c r="E275" s="8">
         <v>43070</v>
       </c>
-      <c r="F275" s="1" t="s">
-        <v>214</v>
+      <c r="F275" s="20">
+        <v>8</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="H275" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B276" s="1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C276" t="s">
         <v>36</v>
@@ -7924,19 +7836,19 @@
       <c r="E276" s="8">
         <v>43070</v>
       </c>
-      <c r="F276" s="1" t="s">
-        <v>188</v>
+      <c r="F276" s="20">
+        <v>11</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>216</v>
+        <v>259</v>
       </c>
       <c r="H276" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B277" s="1" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="C277" t="s">
         <v>36</v>
@@ -7947,19 +7859,19 @@
       <c r="E277" s="8">
         <v>43070</v>
       </c>
-      <c r="F277" s="1" t="s">
-        <v>178</v>
+      <c r="F277" s="20">
+        <v>1</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>208</v>
+        <v>255</v>
       </c>
       <c r="H277" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B278" s="1" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="C278" t="s">
         <v>36</v>
@@ -7970,19 +7882,19 @@
       <c r="E278" s="8">
         <v>43070</v>
       </c>
-      <c r="F278" s="1" t="s">
-        <v>204</v>
+      <c r="F278" s="20">
+        <v>2</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
       <c r="H278" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B279" s="1" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="C279" t="s">
         <v>36</v>
@@ -7993,19 +7905,19 @@
       <c r="E279" s="8">
         <v>43070</v>
       </c>
-      <c r="F279" s="1" t="s">
-        <v>220</v>
+      <c r="F279" s="20">
+        <v>87</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="H279" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B280" s="1" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="C280" t="s">
         <v>36</v>
@@ -8016,17 +7928,17 @@
       <c r="E280" s="8">
         <v>43070</v>
       </c>
-      <c r="F280" s="1" t="s">
-        <v>220</v>
+      <c r="F280" s="20">
+        <v>87</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="H280" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B281" s="1" t="s">
         <v>130</v>
       </c>
@@ -8039,22 +7951,22 @@
       <c r="E281" s="8">
         <v>43070</v>
       </c>
-      <c r="F281" s="1" t="s">
-        <v>224</v>
+      <c r="F281" s="20">
+        <v>222</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="H281" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B282" s="1" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="C282" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="D282" s="8">
         <v>42736</v>
@@ -8062,22 +7974,22 @@
       <c r="E282" s="8">
         <v>43070</v>
       </c>
-      <c r="F282" s="1" t="s">
-        <v>228</v>
+      <c r="F282" s="20">
+        <v>60</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="H282" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B283" s="1" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="C283" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="D283" s="8">
         <v>42736</v>
@@ -8085,22 +7997,22 @@
       <c r="E283" s="8">
         <v>43070</v>
       </c>
-      <c r="F283" s="1" t="s">
-        <v>178</v>
+      <c r="F283" s="20">
+        <v>1</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>208</v>
+        <v>255</v>
       </c>
       <c r="H283" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B284" s="1" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="C284" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="D284" s="8">
         <v>42736</v>
@@ -8108,19 +8020,19 @@
       <c r="E284" s="8">
         <v>43070</v>
       </c>
-      <c r="F284" s="1" t="s">
-        <v>178</v>
+      <c r="F284" s="20">
+        <v>1</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>208</v>
+        <v>255</v>
       </c>
       <c r="H284" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="C285" t="s">
         <v>10</v>
@@ -8131,19 +8043,19 @@
       <c r="E285" s="8">
         <v>43435</v>
       </c>
-      <c r="F285" s="1" t="s">
-        <v>195</v>
+      <c r="F285" s="20">
+        <v>5</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="H285" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C286" t="s">
         <v>10</v>
@@ -8154,19 +8066,19 @@
       <c r="E286" s="8">
         <v>43435</v>
       </c>
-      <c r="F286" s="1" t="s">
-        <v>235</v>
+      <c r="F286" s="20">
+        <v>4</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="H286" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="C287" t="s">
         <v>10</v>
@@ -8177,19 +8089,19 @@
       <c r="E287" s="8">
         <v>43435</v>
       </c>
-      <c r="F287" s="1" t="s">
-        <v>204</v>
+      <c r="F287" s="20">
+        <v>2</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="H287" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="C288" t="s">
         <v>10</v>
@@ -8200,19 +8112,19 @@
       <c r="E288" s="8">
         <v>43435</v>
       </c>
-      <c r="F288" s="1" t="s">
-        <v>178</v>
+      <c r="F288" s="20">
+        <v>1</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="H288" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="C289" t="s">
         <v>10</v>
@@ -8223,19 +8135,19 @@
       <c r="E289" s="8">
         <v>43435</v>
       </c>
-      <c r="F289" s="1" t="s">
-        <v>178</v>
+      <c r="F289" s="20">
+        <v>1</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="H289" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="C290" t="s">
         <v>10</v>
@@ -8246,19 +8158,19 @@
       <c r="E290" s="8">
         <v>43435</v>
       </c>
-      <c r="F290" s="1" t="s">
-        <v>178</v>
+      <c r="F290" s="20">
+        <v>1</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="H290" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="C291" t="s">
         <v>10</v>
@@ -8269,19 +8181,19 @@
       <c r="E291" s="8">
         <v>43435</v>
       </c>
-      <c r="F291" s="1" t="s">
-        <v>178</v>
+      <c r="F291" s="20">
+        <v>1</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="H291" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C292" t="s">
         <v>10</v>
@@ -8292,19 +8204,19 @@
       <c r="E292" s="8">
         <v>43435</v>
       </c>
-      <c r="F292" s="1" t="s">
-        <v>243</v>
+      <c r="F292" s="20">
+        <v>16</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="H292" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B293" s="1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C293" t="s">
         <v>36</v>
@@ -8315,19 +8227,19 @@
       <c r="E293" s="8">
         <v>43435</v>
       </c>
-      <c r="F293" s="1" t="s">
-        <v>178</v>
+      <c r="F293" s="20">
+        <v>1</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="H293" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B294" s="1" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="C294" t="s">
         <v>36</v>
@@ -8338,19 +8250,19 @@
       <c r="E294" s="8">
         <v>43435</v>
       </c>
-      <c r="F294" s="1" t="s">
-        <v>178</v>
+      <c r="F294" s="20">
+        <v>1</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="H294" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B295" s="1" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="C295" t="s">
         <v>36</v>
@@ -8361,19 +8273,19 @@
       <c r="E295" s="8">
         <v>43435</v>
       </c>
-      <c r="F295" s="1" t="s">
-        <v>246</v>
+      <c r="F295" s="20">
+        <v>61</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="H295" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B296" s="1" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="C296" t="s">
         <v>36</v>
@@ -8384,17 +8296,17 @@
       <c r="E296" s="8">
         <v>43435</v>
       </c>
-      <c r="F296" s="1" t="s">
-        <v>246</v>
+      <c r="F296" s="20">
+        <v>61</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="H296" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B297" s="1" t="s">
         <v>130</v>
       </c>
@@ -8407,19 +8319,19 @@
       <c r="E297" s="8">
         <v>43435</v>
       </c>
-      <c r="F297" s="1" t="s">
-        <v>204</v>
+      <c r="F297" s="20">
+        <v>2</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="H297" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="C298" t="s">
         <v>10</v>
@@ -8430,19 +8342,19 @@
       <c r="E298" s="8">
         <v>43800</v>
       </c>
-      <c r="F298" s="1" t="s">
-        <v>195</v>
+      <c r="F298" s="20">
+        <v>5</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="H298" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C299" t="s">
         <v>10</v>
@@ -8453,19 +8365,19 @@
       <c r="E299" s="8">
         <v>43800</v>
       </c>
-      <c r="F299" s="1" t="s">
-        <v>235</v>
+      <c r="F299" s="20">
+        <v>4</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="H299" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="C300" t="s">
         <v>10</v>
@@ -8476,19 +8388,19 @@
       <c r="E300" s="8">
         <v>43800</v>
       </c>
-      <c r="F300" s="1" t="s">
-        <v>204</v>
+      <c r="F300" s="20">
+        <v>2</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="H300" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="C301" t="s">
         <v>10</v>
@@ -8499,19 +8411,19 @@
       <c r="E301" s="8">
         <v>43800</v>
       </c>
-      <c r="F301" s="1" t="s">
-        <v>178</v>
+      <c r="F301" s="20">
+        <v>1</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="H301" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="C302" t="s">
         <v>10</v>
@@ -8522,19 +8434,19 @@
       <c r="E302" s="8">
         <v>43800</v>
       </c>
-      <c r="F302" s="1" t="s">
-        <v>178</v>
+      <c r="F302" s="20">
+        <v>1</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="H302" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="C303" t="s">
         <v>10</v>
@@ -8545,19 +8457,19 @@
       <c r="E303" s="8">
         <v>43800</v>
       </c>
-      <c r="F303" s="1" t="s">
-        <v>178</v>
+      <c r="F303" s="20">
+        <v>1</v>
       </c>
       <c r="G303" s="1" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="H303" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="C304" t="s">
         <v>10</v>
@@ -8568,19 +8480,19 @@
       <c r="E304" s="8">
         <v>43800</v>
       </c>
-      <c r="F304" s="1" t="s">
-        <v>178</v>
+      <c r="F304" s="20">
+        <v>1</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="H304" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C305" t="s">
         <v>10</v>
@@ -8591,19 +8503,19 @@
       <c r="E305" s="8">
         <v>43800</v>
       </c>
-      <c r="F305" s="1" t="s">
-        <v>243</v>
+      <c r="F305" s="20">
+        <v>16</v>
       </c>
       <c r="G305" s="1" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="H305" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B306" s="1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C306" t="s">
         <v>36</v>
@@ -8614,19 +8526,19 @@
       <c r="E306" s="8">
         <v>43800</v>
       </c>
-      <c r="F306" s="1" t="s">
-        <v>178</v>
+      <c r="F306" s="20">
+        <v>1</v>
       </c>
       <c r="G306" s="1" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="H306" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B307" s="1" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="C307" t="s">
         <v>36</v>
@@ -8637,19 +8549,19 @@
       <c r="E307" s="8">
         <v>43800</v>
       </c>
-      <c r="F307" s="1" t="s">
-        <v>178</v>
+      <c r="F307" s="20">
+        <v>1</v>
       </c>
       <c r="G307" s="1" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="H307" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B308" s="1" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="C308" t="s">
         <v>36</v>
@@ -8660,19 +8572,19 @@
       <c r="E308" s="8">
         <v>43800</v>
       </c>
-      <c r="F308" s="1" t="s">
-        <v>246</v>
+      <c r="F308" s="20">
+        <v>61</v>
       </c>
       <c r="G308" s="1" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="H308" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B309" s="1" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="C309" t="s">
         <v>36</v>
@@ -8683,17 +8595,17 @@
       <c r="E309" s="8">
         <v>43800</v>
       </c>
-      <c r="F309" s="1" t="s">
-        <v>246</v>
+      <c r="F309" s="20">
+        <v>61</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="H309" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B310" s="1" t="s">
         <v>130</v>
       </c>
@@ -8706,19 +8618,19 @@
       <c r="E310" s="8">
         <v>43800</v>
       </c>
-      <c r="F310" s="1" t="s">
-        <v>204</v>
+      <c r="F310" s="20">
+        <v>2</v>
       </c>
       <c r="G310" s="1" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="H310" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C311" t="s">
         <v>10</v>
@@ -8729,19 +8641,19 @@
       <c r="E311" s="8">
         <v>44166</v>
       </c>
-      <c r="F311" s="1" t="s">
-        <v>249</v>
+      <c r="F311" s="20">
+        <v>12</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="H311" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="C312" t="s">
         <v>10</v>
@@ -8752,19 +8664,19 @@
       <c r="E312" s="8">
         <v>44166</v>
       </c>
-      <c r="F312" s="1" t="s">
-        <v>178</v>
+      <c r="F312" s="20">
+        <v>1</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="H312" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="C313" t="s">
         <v>10</v>
@@ -8775,19 +8687,19 @@
       <c r="E313" s="8">
         <v>44166</v>
       </c>
-      <c r="F313" s="1" t="s">
-        <v>254</v>
+      <c r="F313" s="20">
+        <v>9</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="H313" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C314" t="s">
         <v>10</v>
@@ -8798,19 +8710,19 @@
       <c r="E314" s="8">
         <v>44166</v>
       </c>
-      <c r="F314" s="1" t="s">
-        <v>256</v>
+      <c r="F314" s="20">
+        <v>148</v>
       </c>
       <c r="G314" s="1" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H314" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="C315" t="s">
         <v>10</v>
@@ -8821,19 +8733,19 @@
       <c r="E315" s="8">
         <v>44166</v>
       </c>
-      <c r="F315" s="1" t="s">
-        <v>175</v>
+      <c r="F315" s="20">
+        <v>3</v>
       </c>
       <c r="G315" s="1" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="H315" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>259</v>
+        <v>210</v>
       </c>
       <c r="C316" t="s">
         <v>10</v>
@@ -8844,19 +8756,19 @@
       <c r="E316" s="8">
         <v>44166</v>
       </c>
-      <c r="F316" s="1" t="s">
-        <v>175</v>
+      <c r="F316" s="20">
+        <v>3</v>
       </c>
       <c r="G316" s="1" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="H316" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
       <c r="C317" t="s">
         <v>10</v>
@@ -8867,19 +8779,19 @@
       <c r="E317" s="8">
         <v>44166</v>
       </c>
-      <c r="F317" s="1" t="s">
-        <v>178</v>
+      <c r="F317" s="20">
+        <v>1</v>
       </c>
       <c r="G317" s="1" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="H317" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8" ht="17.100000000000001">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C318" t="s">
         <v>10</v>
@@ -8890,19 +8802,14 @@
       <c r="E318" s="8">
         <v>44166</v>
       </c>
-      <c r="F318" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G318" s="1" t="s">
-        <v>261</v>
-      </c>
+      <c r="G318" s="1"/>
       <c r="H318" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B319" s="1" t="s">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="C319" t="s">
         <v>36</v>
@@ -8913,19 +8820,19 @@
       <c r="E319" s="8">
         <v>44166</v>
       </c>
-      <c r="F319" s="1" t="s">
-        <v>204</v>
+      <c r="F319" s="20">
+        <v>2</v>
       </c>
       <c r="G319" s="1" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="H319" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B320" s="1" t="s">
-        <v>264</v>
+        <v>213</v>
       </c>
       <c r="C320" t="s">
         <v>36</v>
@@ -8936,19 +8843,19 @@
       <c r="E320" s="8">
         <v>44166</v>
       </c>
-      <c r="F320" s="1" t="s">
-        <v>265</v>
+      <c r="F320" s="20">
+        <v>92</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="H320" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B321" s="1" t="s">
-        <v>267</v>
+        <v>214</v>
       </c>
       <c r="C321" t="s">
         <v>36</v>
@@ -8959,19 +8866,19 @@
       <c r="E321" s="8">
         <v>44166</v>
       </c>
-      <c r="F321" s="1" t="s">
-        <v>178</v>
+      <c r="F321" s="20">
+        <v>1</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="H321" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B322" s="1" t="s">
-        <v>268</v>
+        <v>215</v>
       </c>
       <c r="C322" t="s">
         <v>36</v>
@@ -8982,19 +8889,19 @@
       <c r="E322" s="8">
         <v>44166</v>
       </c>
-      <c r="F322" s="1" t="s">
-        <v>178</v>
+      <c r="F322" s="20">
+        <v>1</v>
       </c>
       <c r="G322" s="1" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="H322" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B323" s="1" t="s">
-        <v>269</v>
+        <v>216</v>
       </c>
       <c r="C323" t="s">
         <v>36</v>
@@ -9005,19 +8912,19 @@
       <c r="E323" s="8">
         <v>44166</v>
       </c>
-      <c r="F323" s="1" t="s">
-        <v>204</v>
+      <c r="F323" s="20">
+        <v>2</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="H323" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B324" s="1" t="s">
-        <v>270</v>
+        <v>217</v>
       </c>
       <c r="C324" t="s">
         <v>36</v>
@@ -9028,19 +8935,19 @@
       <c r="E324" s="8">
         <v>44166</v>
       </c>
-      <c r="F324" s="1" t="s">
-        <v>204</v>
+      <c r="F324" s="20">
+        <v>2</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="H324" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B325" s="1" t="s">
-        <v>271</v>
+        <v>218</v>
       </c>
       <c r="C325" t="s">
         <v>36</v>
@@ -9051,19 +8958,19 @@
       <c r="E325" s="8">
         <v>44166</v>
       </c>
-      <c r="F325" s="1" t="s">
-        <v>178</v>
+      <c r="F325" s="20">
+        <v>1</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="H325" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B326" s="1" t="s">
-        <v>272</v>
+        <v>219</v>
       </c>
       <c r="C326" t="s">
         <v>36</v>
@@ -9074,19 +8981,19 @@
       <c r="E326" s="8">
         <v>44166</v>
       </c>
-      <c r="F326" s="1" t="s">
-        <v>204</v>
+      <c r="F326" s="20">
+        <v>2</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="H326" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B327" s="1" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="C327" t="s">
         <v>36</v>
@@ -9097,19 +9004,19 @@
       <c r="E327" s="8">
         <v>44166</v>
       </c>
-      <c r="F327" s="1" t="s">
-        <v>178</v>
+      <c r="F327" s="20">
+        <v>1</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="H327" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B328" s="1" t="s">
-        <v>274</v>
+        <v>221</v>
       </c>
       <c r="C328" t="s">
         <v>36</v>
@@ -9120,19 +9027,19 @@
       <c r="E328" s="8">
         <v>44166</v>
       </c>
-      <c r="F328" s="1" t="s">
-        <v>178</v>
+      <c r="F328" s="20">
+        <v>1</v>
       </c>
       <c r="G328" s="1" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="H328" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B329" s="1" t="s">
-        <v>275</v>
+        <v>222</v>
       </c>
       <c r="C329" t="s">
         <v>36</v>
@@ -9143,17 +9050,17 @@
       <c r="E329" s="8">
         <v>44166</v>
       </c>
-      <c r="F329" s="1" t="s">
-        <v>178</v>
+      <c r="F329" s="20">
+        <v>1</v>
       </c>
       <c r="G329" s="1" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="H329" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8" ht="17.100000000000001">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B330" s="1" t="s">
         <v>130</v>
       </c>
@@ -9166,19 +9073,13 @@
       <c r="E330" s="8">
         <v>44166</v>
       </c>
-      <c r="F330" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G330" t="s">
-        <v>151</v>
-      </c>
       <c r="H330" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8" ht="18.95">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" ht="19" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
-        <v>276</v>
+        <v>223</v>
       </c>
       <c r="C331" t="s">
         <v>10</v>
@@ -9189,19 +9090,19 @@
       <c r="E331" s="8">
         <v>44531</v>
       </c>
-      <c r="F331" s="18" t="s">
-        <v>178</v>
+      <c r="F331" s="21">
+        <v>1</v>
       </c>
       <c r="G331" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H331" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8" ht="18.95">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" ht="19" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="C332" t="s">
         <v>10</v>
@@ -9212,19 +9113,19 @@
       <c r="E332" s="8">
         <v>44531</v>
       </c>
-      <c r="F332" s="18" t="s">
-        <v>280</v>
+      <c r="F332" s="21">
+        <v>17</v>
       </c>
       <c r="G332" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="H332" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8" ht="18.95">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" ht="19" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
-        <v>282</v>
+        <v>226</v>
       </c>
       <c r="C333" t="s">
         <v>10</v>
@@ -9235,19 +9136,19 @@
       <c r="E333" s="8">
         <v>44531</v>
       </c>
-      <c r="F333" s="18" t="s">
-        <v>178</v>
+      <c r="F333" s="21">
+        <v>1</v>
       </c>
       <c r="G333" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H333" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8" ht="18.95">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" ht="19" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
-        <v>283</v>
+        <v>227</v>
       </c>
       <c r="C334" t="s">
         <v>10</v>
@@ -9258,19 +9159,19 @@
       <c r="E334" s="8">
         <v>44531</v>
       </c>
-      <c r="F334" s="18" t="s">
-        <v>178</v>
+      <c r="F334" s="21">
+        <v>1</v>
       </c>
       <c r="G334" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H334" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8" ht="18.95">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" ht="19" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
-        <v>284</v>
+        <v>228</v>
       </c>
       <c r="C335" t="s">
         <v>10</v>
@@ -9281,19 +9182,19 @@
       <c r="E335" s="8">
         <v>44531</v>
       </c>
-      <c r="F335" s="18" t="s">
-        <v>178</v>
+      <c r="F335" s="21">
+        <v>1</v>
       </c>
       <c r="G335" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H335" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8" ht="18.95">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" ht="19" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
-        <v>285</v>
+        <v>229</v>
       </c>
       <c r="C336" t="s">
         <v>10</v>
@@ -9304,19 +9205,19 @@
       <c r="E336" s="8">
         <v>44531</v>
       </c>
-      <c r="F336" s="18" t="s">
-        <v>178</v>
+      <c r="F336" s="21">
+        <v>1</v>
       </c>
       <c r="G336" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H336" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="337" spans="1:14" ht="18.95">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="337" spans="1:14" ht="19" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
-        <v>286</v>
+        <v>230</v>
       </c>
       <c r="C337" t="s">
         <v>10</v>
@@ -9327,19 +9228,19 @@
       <c r="E337" s="8">
         <v>44531</v>
       </c>
-      <c r="F337" s="18" t="s">
-        <v>178</v>
+      <c r="F337" s="21">
+        <v>1</v>
       </c>
       <c r="G337" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H337" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="338" spans="1:14" ht="18.95">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="338" spans="1:14" ht="19" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
-        <v>287</v>
+        <v>231</v>
       </c>
       <c r="C338" t="s">
         <v>10</v>
@@ -9350,19 +9251,19 @@
       <c r="E338" s="8">
         <v>44531</v>
       </c>
-      <c r="F338" s="18" t="s">
-        <v>235</v>
+      <c r="F338" s="21">
+        <v>4</v>
       </c>
       <c r="G338" s="18" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="H338" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="339" spans="1:14" ht="17.100000000000001">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C339" t="s">
         <v>10</v>
@@ -9373,19 +9274,14 @@
       <c r="E339" s="8">
         <v>44531</v>
       </c>
-      <c r="F339" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G339" s="1" t="s">
-        <v>261</v>
-      </c>
+      <c r="G339" s="1"/>
       <c r="H339" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="340" spans="1:14" ht="18.95">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="340" spans="1:14" ht="19" x14ac:dyDescent="0.3">
       <c r="B340" s="18" t="s">
-        <v>289</v>
+        <v>232</v>
       </c>
       <c r="C340" t="s">
         <v>36</v>
@@ -9396,19 +9292,19 @@
       <c r="E340" s="8">
         <v>44531</v>
       </c>
-      <c r="F340" s="18" t="s">
-        <v>290</v>
+      <c r="F340" s="21">
+        <v>6</v>
       </c>
       <c r="G340" s="18" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="H340" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="341" spans="1:14" ht="18.95">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="341" spans="1:14" ht="19" x14ac:dyDescent="0.3">
       <c r="B341" s="18" t="s">
-        <v>292</v>
+        <v>233</v>
       </c>
       <c r="C341" t="s">
         <v>36</v>
@@ -9419,17 +9315,17 @@
       <c r="E341" s="8">
         <v>44531</v>
       </c>
-      <c r="F341" s="18" t="s">
-        <v>178</v>
+      <c r="F341" s="21">
+        <v>1</v>
       </c>
       <c r="G341" s="18" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H341" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="342" spans="1:14" ht="17.100000000000001">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B342" s="1" t="s">
         <v>130</v>
       </c>
@@ -9442,62 +9338,57 @@
       <c r="E342" s="8">
         <v>44531</v>
       </c>
-      <c r="F342" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G342" s="1" t="s">
-        <v>261</v>
-      </c>
+      <c r="G342" s="1"/>
       <c r="H342" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="344" spans="1:14" ht="102">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="344" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="M344" s="15" t="s">
-        <v>293</v>
+        <v>234</v>
       </c>
       <c r="N344" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="345" spans="1:14" ht="170.1">
+    <row r="345" spans="1:14" ht="170" x14ac:dyDescent="0.2">
       <c r="M345" s="15" t="s">
-        <v>294</v>
+        <v>235</v>
       </c>
       <c r="N345" s="11" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="346" spans="1:14" ht="68.099999999999994">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="346" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="M346" s="16" t="s">
-        <v>296</v>
+        <v>237</v>
       </c>
       <c r="N346" s="10" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="347" spans="1:14" ht="68.099999999999994">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="347" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="M347" s="16" t="s">
-        <v>298</v>
+        <v>239</v>
       </c>
       <c r="N347" s="10" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="348" spans="1:14" ht="68.099999999999994">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="348" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="M348" s="17" t="s">
-        <v>300</v>
+        <v>241</v>
       </c>
       <c r="N348" s="14" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="349" spans="1:14" ht="237.95">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="349" spans="1:14" ht="238" x14ac:dyDescent="0.2">
       <c r="M349" s="17" t="s">
-        <v>302</v>
+        <v>243</v>
       </c>
       <c r="N349" s="14" t="s">
-        <v>303</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -9506,12 +9397,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="bba4fe9c-eca3-45df-80d8-b64ac48ec5b7">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9700,27 +9596,47 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="bba4fe9c-eca3-45df-80d8-b64ac48ec5b7">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A8AB882-DC77-4281-BE50-792119AEA62B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9A294B2-B024-41A5-8001-EF4F32E88386}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bba4fe9c-eca3-45df-80d8-b64ac48ec5b7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A7C1B6C-7A39-4618-BF12-C33024FD8EA1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A7C1B6C-7A39-4618-BF12-C33024FD8EA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9a2b45ef-5c6d-4343-bc33-3618b4ff71b6"/>
+    <ds:schemaRef ds:uri="bba4fe9c-eca3-45df-80d8-b64ac48ec5b7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9A294B2-B024-41A5-8001-EF4F32E88386}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A8AB882-DC77-4281-BE50-792119AEA62B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>